--- a/thrust_calc_results.xlsx
+++ b/thrust_calc_results.xlsx
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17126.73162235984</v>
+        <v>17126.73162235982</v>
       </c>
       <c r="C2" t="n">
         <v>14.10583813984129</v>
@@ -591,28 +591,28 @@
         <v>6976.910679550587</v>
       </c>
       <c r="I2" t="n">
-        <v>207.6712460492573</v>
+        <v>207.6712460492576</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2645344624757899</v>
+        <v>0.2645344624757903</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>20870.36326315546</v>
+        <v>20870.36326315545</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3242.912335015562</v>
+        <v>3242.912335015547</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>20616.87615337186</v>
+        <v>20616.87615337185</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -624,19 +624,19 @@
         <v>39.99961494556892</v>
       </c>
       <c r="T2" t="n">
-        <v>35.79136578756066</v>
+        <v>35.79136578756065</v>
       </c>
       <c r="U2" t="n">
         <v>39.99961494556892</v>
       </c>
       <c r="V2" t="n">
-        <v>37.86130849572435</v>
+        <v>37.86130849572596</v>
       </c>
       <c r="W2" t="n">
         <v>39.99961494556892</v>
       </c>
       <c r="X2" t="n">
-        <v>36.8263371416425</v>
+        <v>36.82633714164331</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26393.52910615979</v>
+        <v>26393.52910615976</v>
       </c>
       <c r="C3" t="n">
         <v>12.77628929067389</v>
@@ -671,58 +671,58 @@
         <v>18718.16443016667</v>
       </c>
       <c r="I3" t="n">
-        <v>207.6712460492573</v>
+        <v>207.6712460492576</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2645344624757899</v>
+        <v>0.2645344624757903</v>
       </c>
       <c r="K3" t="n">
-        <v>20870.36326315546</v>
+        <v>20870.36326315545</v>
       </c>
       <c r="L3" t="n">
-        <v>52168.67746883237</v>
+        <v>52168.67746883234</v>
       </c>
       <c r="M3" t="n">
-        <v>3242.912335015562</v>
+        <v>3242.912335015547</v>
       </c>
       <c r="N3" t="n">
-        <v>8106.15730698816</v>
+        <v>8106.157306988123</v>
       </c>
       <c r="O3" t="n">
-        <v>20616.87615337186</v>
+        <v>20616.87615337185</v>
       </c>
       <c r="P3" t="n">
-        <v>51535.0475168251</v>
+        <v>51535.04751682508</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.750682894377595</v>
+        <v>5.750682894377589</v>
       </c>
       <c r="R3" t="n">
-        <v>7.820625602541294</v>
+        <v>7.820625602542903</v>
       </c>
       <c r="S3" t="n">
-        <v>35.79136578756066</v>
+        <v>35.79136578756065</v>
       </c>
       <c r="T3" t="n">
         <v>31.05760450931817</v>
       </c>
       <c r="U3" t="n">
-        <v>37.86130849572435</v>
+        <v>37.86130849572596</v>
       </c>
       <c r="V3" t="n">
-        <v>31.89669480758798</v>
+        <v>31.89669480758862</v>
       </c>
       <c r="W3" t="n">
-        <v>36.8263371416425</v>
+        <v>36.82633714164331</v>
       </c>
       <c r="X3" t="n">
-        <v>31.47714965845308</v>
+        <v>31.4771496584534</v>
       </c>
       <c r="Y3" t="n">
         <v>2.91038304567337e-11</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.91038304567337e-11</v>
+        <v>-2.91038304567337e-11</v>
       </c>
     </row>
     <row r="4">
@@ -730,7 +730,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30590.57201577537</v>
+        <v>30590.57201577535</v>
       </c>
       <c r="C4" t="n">
         <v>11.87808673064982</v>
@@ -751,34 +751,34 @@
         <v>28137.86010431374</v>
       </c>
       <c r="I4" t="n">
-        <v>207.6712460492573</v>
+        <v>207.6712460492576</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2645344624757899</v>
+        <v>0.2645344624757903</v>
       </c>
       <c r="K4" t="n">
-        <v>52168.67746883237</v>
+        <v>52168.67746883234</v>
       </c>
       <c r="L4" t="n">
-        <v>86364.05951491569</v>
+        <v>86364.05951491563</v>
       </c>
       <c r="M4" t="n">
-        <v>8106.15730698816</v>
+        <v>8106.157306988123</v>
       </c>
       <c r="N4" t="n">
-        <v>13419.55913136287</v>
+        <v>13419.55913136281</v>
       </c>
       <c r="O4" t="n">
-        <v>51535.0475168251</v>
+        <v>51535.04751682508</v>
       </c>
       <c r="P4" t="n">
-        <v>85315.09953469993</v>
+        <v>85315.09953469987</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.957275443468555</v>
+        <v>8.957275443468548</v>
       </c>
       <c r="R4" t="n">
-        <v>9.796365741738363</v>
+        <v>9.796365741739001</v>
       </c>
       <c r="S4" t="n">
         <v>31.05760450931817</v>
@@ -787,19 +787,19 @@
         <v>27.50954341761175</v>
       </c>
       <c r="U4" t="n">
-        <v>31.89669480758798</v>
+        <v>31.89669480758862</v>
       </c>
       <c r="V4" t="n">
-        <v>28.02075556401509</v>
+        <v>28.02075556401547</v>
       </c>
       <c r="W4" t="n">
-        <v>31.47714965845308</v>
+        <v>31.4771496584534</v>
       </c>
       <c r="X4" t="n">
-        <v>27.76514949081342</v>
+        <v>27.76514949081361</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>-1.164153218269348e-10</v>
       </c>
       <c r="Z4" t="n">
         <v>-5.820766091346741e-11</v>
@@ -810,7 +810,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32499.18525670046</v>
+        <v>32499.18525670044</v>
       </c>
       <c r="C5" t="n">
         <v>11.24349820547246</v>
@@ -831,58 +831,58 @@
         <v>35700.23289621456</v>
       </c>
       <c r="I5" t="n">
-        <v>207.6712460492573</v>
+        <v>207.6712460492576</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2645344624757899</v>
+        <v>0.2645344624757903</v>
       </c>
       <c r="K5" t="n">
-        <v>86364.05951491569</v>
+        <v>86364.05951491563</v>
       </c>
       <c r="L5" t="n">
-        <v>119813.6443566896</v>
+        <v>119813.6443566895</v>
       </c>
       <c r="M5" t="n">
-        <v>13419.55913136287</v>
+        <v>13419.55913136281</v>
       </c>
       <c r="N5" t="n">
-        <v>18617.0762956203</v>
+        <v>18617.07629562022</v>
       </c>
       <c r="O5" t="n">
-        <v>85315.09953469993</v>
+        <v>85315.09953469987</v>
       </c>
       <c r="P5" t="n">
-        <v>118358.4126466486</v>
+        <v>118358.4126466485</v>
       </c>
       <c r="Q5" t="n">
-        <v>11.79310929895033</v>
+        <v>11.79310929895032</v>
       </c>
       <c r="R5" t="n">
-        <v>12.30432144535367</v>
+        <v>12.30432144535405</v>
       </c>
       <c r="S5" t="n">
         <v>27.50954341761175</v>
       </c>
       <c r="T5" t="n">
-        <v>24.86079305563893</v>
+        <v>24.86079305563892</v>
       </c>
       <c r="U5" t="n">
-        <v>28.02075556401509</v>
+        <v>28.02075556401547</v>
       </c>
       <c r="V5" t="n">
-        <v>25.23125337377917</v>
+        <v>25.23125337377944</v>
       </c>
       <c r="W5" t="n">
-        <v>27.76514949081342</v>
+        <v>27.76514949081361</v>
       </c>
       <c r="X5" t="n">
-        <v>25.04602321470905</v>
+        <v>25.04602321470918</v>
       </c>
       <c r="Y5" t="n">
+        <v>5.820766091346741e-11</v>
+      </c>
+      <c r="Z5" t="n">
         <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1.164153218269348e-10</v>
       </c>
     </row>
     <row r="6">
@@ -890,7 +890,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>33169.00469766768</v>
+        <v>33169.00469766767</v>
       </c>
       <c r="C6" t="n">
         <v>10.78695667671407</v>
@@ -911,55 +911,55 @@
         <v>41691.15558417432</v>
       </c>
       <c r="I6" t="n">
-        <v>207.6712460492573</v>
+        <v>207.6712460492576</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2645344624757899</v>
+        <v>0.2645344624757903</v>
       </c>
       <c r="K6" t="n">
-        <v>119813.6443566896</v>
+        <v>119813.6443566895</v>
       </c>
       <c r="L6" t="n">
-        <v>150512.412994593</v>
+        <v>150512.4129945929</v>
       </c>
       <c r="M6" t="n">
-        <v>18617.0762956203</v>
+        <v>18617.07629562022</v>
       </c>
       <c r="N6" t="n">
-        <v>23387.1617143728</v>
+        <v>23387.1617143727</v>
       </c>
       <c r="O6" t="n">
-        <v>118358.4126466486</v>
+        <v>118358.4126466485</v>
       </c>
       <c r="P6" t="n">
-        <v>148684.3203986241</v>
+        <v>148684.320398624</v>
       </c>
       <c r="Q6" t="n">
-        <v>14.24465094181203</v>
+        <v>14.24465094181202</v>
       </c>
       <c r="R6" t="n">
-        <v>14.61511125995228</v>
+        <v>14.61511125995254</v>
       </c>
       <c r="S6" t="n">
-        <v>24.86079305563893</v>
+        <v>24.86079305563892</v>
       </c>
       <c r="T6" t="n">
-        <v>22.9639266940214</v>
+        <v>22.96392669402138</v>
       </c>
       <c r="U6" t="n">
-        <v>25.23125337377917</v>
+        <v>25.23125337377944</v>
       </c>
       <c r="V6" t="n">
-        <v>23.25978009801216</v>
+        <v>23.25978009801236</v>
       </c>
       <c r="W6" t="n">
-        <v>25.04602321470905</v>
+        <v>25.04602321470918</v>
       </c>
       <c r="X6" t="n">
-        <v>23.11185339601678</v>
+        <v>23.11185339601687</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.91038304567337e-10</v>
+        <v>3.492459654808044e-10</v>
       </c>
       <c r="Z6" t="n">
         <v>-1.164153218269348e-10</v>
@@ -991,58 +991,58 @@
         <v>46296.37332020365</v>
       </c>
       <c r="I7" t="n">
-        <v>207.6712460492573</v>
+        <v>207.6712460492576</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2645344624757899</v>
+        <v>0.2645344624757903</v>
       </c>
       <c r="K7" t="n">
-        <v>150512.412994593</v>
+        <v>150512.4129945929</v>
       </c>
       <c r="L7" t="n">
-        <v>177291.5195301109</v>
+        <v>177291.5195301108</v>
       </c>
       <c r="M7" t="n">
-        <v>23387.1617143728</v>
+        <v>23387.1617143727</v>
       </c>
       <c r="N7" t="n">
-        <v>27548.19589522189</v>
+        <v>27548.19589522177</v>
       </c>
       <c r="O7" t="n">
-        <v>148684.3203986241</v>
+        <v>148684.320398624</v>
       </c>
       <c r="P7" t="n">
-        <v>175138.1734523179</v>
+        <v>175138.1734523178</v>
       </c>
       <c r="Q7" t="n">
-        <v>16.33784048559878</v>
+        <v>16.33784048559876</v>
       </c>
       <c r="R7" t="n">
-        <v>16.63369388958954</v>
+        <v>16.63369388958974</v>
       </c>
       <c r="S7" t="n">
-        <v>22.9639266940214</v>
+        <v>22.96392669402138</v>
       </c>
       <c r="T7" t="n">
-        <v>21.72741049647512</v>
+        <v>21.7274104964751</v>
       </c>
       <c r="U7" t="n">
-        <v>23.25978009801216</v>
+        <v>23.25978009801236</v>
       </c>
       <c r="V7" t="n">
-        <v>21.97904466357365</v>
+        <v>21.97904466357381</v>
       </c>
       <c r="W7" t="n">
-        <v>23.11185339601678</v>
+        <v>23.11185339601687</v>
       </c>
       <c r="X7" t="n">
-        <v>21.85322758002438</v>
+        <v>21.85322758002446</v>
       </c>
       <c r="Y7" t="n">
-        <v>-2.91038304567337e-10</v>
+        <v>-2.328306436538696e-10</v>
       </c>
       <c r="Z7" t="n">
-        <v>5.820766091346741e-11</v>
+        <v>-1.164153218269348e-10</v>
       </c>
     </row>
     <row r="8">
@@ -1050,7 +1050,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>34936.28971150933</v>
+        <v>34936.28971150931</v>
       </c>
       <c r="C8" t="n">
         <v>10.07659006958534</v>
@@ -1071,58 +1071,58 @@
         <v>53576.08621085047</v>
       </c>
       <c r="I8" t="n">
-        <v>51.91781151231434</v>
+        <v>51.9178115123144</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3244184923225048</v>
+        <v>0.3244184923225052</v>
       </c>
       <c r="K8" t="n">
-        <v>177291.5195301109</v>
+        <v>177291.5195301108</v>
       </c>
       <c r="L8" t="n">
         <v>201589.3684865372</v>
       </c>
       <c r="M8" t="n">
-        <v>27548.19589522189</v>
+        <v>27548.19589522177</v>
       </c>
       <c r="N8" t="n">
-        <v>31323.68332213439</v>
+        <v>31323.68332213425</v>
       </c>
       <c r="O8" t="n">
-        <v>175138.1734523179</v>
+        <v>175138.1734523178</v>
       </c>
       <c r="P8" t="n">
         <v>199140.9057675884</v>
       </c>
       <c r="Q8" t="n">
-        <v>18.0954043779544</v>
+        <v>18.09540437795438</v>
       </c>
       <c r="R8" t="n">
-        <v>18.34703854505293</v>
+        <v>18.34703854505309</v>
       </c>
       <c r="S8" t="n">
-        <v>21.72741049647512</v>
+        <v>21.7274104964751</v>
       </c>
       <c r="T8" t="n">
-        <v>20.88124660072944</v>
+        <v>20.88124660072942</v>
       </c>
       <c r="U8" t="n">
-        <v>21.97904466357365</v>
+        <v>21.97904466357381</v>
       </c>
       <c r="V8" t="n">
-        <v>21.10277799855091</v>
+        <v>21.10277799855105</v>
       </c>
       <c r="W8" t="n">
-        <v>21.85322758002438</v>
+        <v>21.85322758002446</v>
       </c>
       <c r="X8" t="n">
-        <v>20.99201229964017</v>
+        <v>20.99201229964023</v>
       </c>
       <c r="Y8" t="n">
+        <v>5.820766091346741e-11</v>
+      </c>
+      <c r="Z8" t="n">
         <v>-5.820766091346741e-11</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>6.402842700481415e-10</v>
       </c>
     </row>
     <row r="9">
@@ -1130,7 +1130,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>38956.74174810763</v>
+        <v>38956.74174810761</v>
       </c>
       <c r="C9" t="n">
         <v>9.939495248171937</v>
@@ -1151,58 +1151,58 @@
         <v>65158.84795942099</v>
       </c>
       <c r="I9" t="n">
-        <v>51.91781151231434</v>
+        <v>51.9178115123144</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3244184923225048</v>
+        <v>0.3244184923225052</v>
       </c>
       <c r="K9" t="n">
         <v>201589.3684865372</v>
       </c>
       <c r="L9" t="n">
-        <v>223451.2939094524</v>
+        <v>223451.2939094523</v>
       </c>
       <c r="M9" t="n">
-        <v>31323.68332213439</v>
+        <v>31323.68332213425</v>
       </c>
       <c r="N9" t="n">
-        <v>34720.66816265808</v>
+        <v>34720.66816265794</v>
       </c>
       <c r="O9" t="n">
         <v>199140.9057675884</v>
       </c>
       <c r="P9" t="n">
-        <v>220737.3007720876</v>
+        <v>220737.3007720875</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.29723182044357</v>
+        <v>19.29723182044355</v>
       </c>
       <c r="R9" t="n">
-        <v>19.51876321826504</v>
+        <v>19.51876321826518</v>
       </c>
       <c r="S9" t="n">
-        <v>20.88124660072944</v>
+        <v>20.88124660072942</v>
       </c>
       <c r="T9" t="n">
-        <v>20.41044569971111</v>
+        <v>20.41044569971109</v>
       </c>
       <c r="U9" t="n">
-        <v>21.10277799855091</v>
+        <v>21.10277799855105</v>
       </c>
       <c r="V9" t="n">
-        <v>20.61040540938281</v>
+        <v>20.61040540938293</v>
       </c>
       <c r="W9" t="n">
-        <v>20.99201229964017</v>
+        <v>20.99201229964023</v>
       </c>
       <c r="X9" t="n">
-        <v>20.51042555454696</v>
+        <v>20.51042555454701</v>
       </c>
       <c r="Y9" t="n">
-        <v>-4.074536263942719e-10</v>
+        <v>-2.91038304567337e-10</v>
       </c>
       <c r="Z9" t="n">
-        <v>4.074536263942719e-10</v>
+        <v>-1.164153218269348e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1210,7 +1210,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>44324.77245843504</v>
+        <v>44324.77245843503</v>
       </c>
       <c r="C10" t="n">
         <v>9.874029601984471</v>
@@ -1231,58 +1231,58 @@
         <v>75659.45807402786</v>
       </c>
       <c r="I10" t="n">
-        <v>51.91781151231434</v>
+        <v>51.9178115123144</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3244184923225048</v>
+        <v>0.3244184923225052</v>
       </c>
       <c r="K10" t="n">
-        <v>223451.2939094524</v>
+        <v>223451.2939094523</v>
       </c>
       <c r="L10" t="n">
         <v>241607.8345365945</v>
       </c>
       <c r="M10" t="n">
-        <v>34720.66816265808</v>
+        <v>34720.66816265794</v>
       </c>
       <c r="N10" t="n">
-        <v>37541.89694619906</v>
+        <v>37541.8969461989</v>
       </c>
       <c r="O10" t="n">
-        <v>220737.3007720876</v>
+        <v>220737.3007720875</v>
       </c>
       <c r="P10" t="n">
         <v>238673.3158171298</v>
       </c>
       <c r="Q10" t="n">
-        <v>20.02849989258322</v>
+        <v>20.02849989258319</v>
       </c>
       <c r="R10" t="n">
-        <v>20.22845960225492</v>
+        <v>20.22845960225504</v>
       </c>
       <c r="S10" t="n">
-        <v>20.41044569971111</v>
+        <v>20.41044569971109</v>
       </c>
       <c r="T10" t="n">
-        <v>20.38463223308759</v>
+        <v>20.38463223308755</v>
       </c>
       <c r="U10" t="n">
-        <v>20.61040540938281</v>
+        <v>20.61040540938293</v>
       </c>
       <c r="V10" t="n">
-        <v>20.56958952352878</v>
+        <v>20.56958952352887</v>
       </c>
       <c r="W10" t="n">
-        <v>20.51042555454696</v>
+        <v>20.51042555454701</v>
       </c>
       <c r="X10" t="n">
-        <v>20.47711087830818</v>
+        <v>20.47711087830821</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.746229827404022e-10</v>
+        <v>2.328306436538696e-10</v>
       </c>
       <c r="Z10" t="n">
-        <v>5.820766091346741e-11</v>
+        <v>-4.074536263942719e-10</v>
       </c>
     </row>
     <row r="11">
@@ -1311,10 +1311,10 @@
         <v>108518.5126056569</v>
       </c>
       <c r="I11" t="n">
-        <v>103.8356230246287</v>
+        <v>103.8356230246288</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2760519005232043</v>
+        <v>0.2760519005232047</v>
       </c>
       <c r="K11" t="n">
         <v>241607.8345365945</v>
@@ -1323,10 +1323,10 @@
         <v>254320.3536140678</v>
       </c>
       <c r="M11" t="n">
-        <v>37541.89694619906</v>
+        <v>37541.8969461989</v>
       </c>
       <c r="N11" t="n">
-        <v>39517.21402169235</v>
+        <v>39517.2140216922</v>
       </c>
       <c r="O11" t="n">
         <v>238673.3158171298</v>
@@ -1335,34 +1335,34 @@
         <v>251231.4312707474</v>
       </c>
       <c r="Q11" t="n">
-        <v>20.38425723250165</v>
+        <v>20.38425723250162</v>
       </c>
       <c r="R11" t="n">
-        <v>20.56921452294284</v>
+        <v>20.56921452294294</v>
       </c>
       <c r="S11" t="n">
-        <v>20.38463223308759</v>
+        <v>20.38463223308755</v>
       </c>
       <c r="T11" t="n">
-        <v>21.2764542224214</v>
+        <v>21.27645422242136</v>
       </c>
       <c r="U11" t="n">
-        <v>20.56958952352878</v>
+        <v>20.56958952352887</v>
       </c>
       <c r="V11" t="n">
-        <v>21.45212167900722</v>
+        <v>21.45212167900729</v>
       </c>
       <c r="W11" t="n">
-        <v>20.47711087830818</v>
+        <v>20.47711087830821</v>
       </c>
       <c r="X11" t="n">
-        <v>21.36428795071431</v>
+        <v>21.36428795071433</v>
       </c>
       <c r="Y11" t="n">
-        <v>-6.984919309616089e-10</v>
+        <v>3.492459654808044e-10</v>
       </c>
       <c r="Z11" t="n">
-        <v>-4.656612873077393e-10</v>
+        <v>-5.820766091346741e-10</v>
       </c>
     </row>
     <row r="12">
@@ -1370,7 +1370,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>71242.4489983699</v>
+        <v>71242.44899836992</v>
       </c>
       <c r="C12" t="n">
         <v>12.50482896617596</v>
@@ -1391,10 +1391,10 @@
         <v>122436.3747918735</v>
       </c>
       <c r="I12" t="n">
-        <v>103.8356230246287</v>
+        <v>103.8356230246288</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2760519005232043</v>
+        <v>0.2760519005232047</v>
       </c>
       <c r="K12" t="n">
         <v>254320.3536140678</v>
@@ -1403,10 +1403,10 @@
         <v>256078.2094044913</v>
       </c>
       <c r="M12" t="n">
-        <v>39517.21402169235</v>
+        <v>39517.2140216922</v>
       </c>
       <c r="N12" t="n">
-        <v>39790.3559959869</v>
+        <v>39790.35599598675</v>
       </c>
       <c r="O12" t="n">
         <v>251231.4312707474</v>
@@ -1415,34 +1415,34 @@
         <v>252967.9365088056</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.60783106858035</v>
+        <v>20.60783106858031</v>
       </c>
       <c r="R12" t="n">
-        <v>20.78349852516616</v>
+        <v>20.78349852516624</v>
       </c>
       <c r="S12" t="n">
-        <v>21.2764542224214</v>
+        <v>21.27645422242136</v>
       </c>
       <c r="T12" t="n">
-        <v>23.07765734025184</v>
+        <v>23.07765734025179</v>
       </c>
       <c r="U12" t="n">
-        <v>21.45212167900722</v>
+        <v>21.45212167900729</v>
       </c>
       <c r="V12" t="n">
-        <v>23.25210014250314</v>
+        <v>23.2521001425032</v>
       </c>
       <c r="W12" t="n">
-        <v>21.36428795071431</v>
+        <v>21.36428795071433</v>
       </c>
       <c r="X12" t="n">
-        <v>23.16487874137749</v>
+        <v>23.1648787413775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>-2.328306436538696e-10</v>
       </c>
       <c r="Z12" t="n">
-        <v>3.492459654808044e-10</v>
+        <v>6.984919309616089e-10</v>
       </c>
     </row>
     <row r="13">
@@ -1471,22 +1471,22 @@
         <v>101962.1203276141</v>
       </c>
       <c r="I13" t="n">
-        <v>103.8356230246287</v>
+        <v>103.8356230246288</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2760519005232043</v>
+        <v>0.2760519005232047</v>
       </c>
       <c r="K13" t="n">
         <v>256078.2094044913</v>
       </c>
       <c r="L13" t="n">
-        <v>247679.9309536193</v>
+        <v>247679.9309536194</v>
       </c>
       <c r="M13" t="n">
-        <v>39790.3559959869</v>
+        <v>39790.35599598675</v>
       </c>
       <c r="N13" t="n">
-        <v>38485.40119295727</v>
+        <v>38485.40119295712</v>
       </c>
       <c r="O13" t="n">
         <v>252967.9365088056</v>
@@ -1495,25 +1495,25 @@
         <v>244671.6618086508</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.44460328330686</v>
+        <v>20.44460328330682</v>
       </c>
       <c r="R13" t="n">
-        <v>20.61904608555816</v>
+        <v>20.61904608555823</v>
       </c>
       <c r="S13" t="n">
-        <v>23.07765734025184</v>
+        <v>23.07765734025179</v>
       </c>
       <c r="T13" t="n">
-        <v>25.31730615616783</v>
+        <v>25.31730615616778</v>
       </c>
       <c r="U13" t="n">
-        <v>23.25210014250314</v>
+        <v>23.2521001425032</v>
       </c>
       <c r="V13" t="n">
-        <v>25.49774886306175</v>
+        <v>25.49774886306181</v>
       </c>
       <c r="W13" t="n">
-        <v>23.16487874137749</v>
+        <v>23.1648787413775</v>
       </c>
       <c r="X13" t="n">
         <v>25.40752750961479</v>
@@ -1522,7 +1522,7 @@
         <v>-4.074536263942719e-10</v>
       </c>
       <c r="Z13" t="n">
-        <v>5.820766091346741e-11</v>
+        <v>5.820766091346741e-10</v>
       </c>
     </row>
     <row r="14">
@@ -1551,58 +1551,58 @@
         <v>97988.89922008957</v>
       </c>
       <c r="I14" t="n">
-        <v>103.8356230246287</v>
+        <v>103.8356230246288</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2760519005232043</v>
+        <v>0.2760519005232047</v>
       </c>
       <c r="K14" t="n">
-        <v>247679.9309536193</v>
+        <v>247679.9309536194</v>
       </c>
       <c r="L14" t="n">
-        <v>230608.4400432078</v>
+        <v>230608.4400432079</v>
       </c>
       <c r="M14" t="n">
-        <v>38485.40119295727</v>
+        <v>38485.40119295712</v>
       </c>
       <c r="N14" t="n">
-        <v>35832.77134878899</v>
+        <v>35832.77134878885</v>
       </c>
       <c r="O14" t="n">
         <v>244671.6618086508</v>
       </c>
       <c r="P14" t="n">
-        <v>227807.5176912017</v>
+        <v>227807.5176912018</v>
       </c>
       <c r="Q14" t="n">
-        <v>20.11807051736288</v>
+        <v>20.11807051736283</v>
       </c>
       <c r="R14" t="n">
-        <v>20.2985132242568</v>
+        <v>20.29851322425686</v>
       </c>
       <c r="S14" t="n">
-        <v>25.31730615616783</v>
+        <v>25.31730615616778</v>
       </c>
       <c r="T14" t="n">
-        <v>28.29791067679702</v>
+        <v>28.29791067679695</v>
       </c>
       <c r="U14" t="n">
-        <v>25.49774886306175</v>
+        <v>25.49774886306181</v>
       </c>
       <c r="V14" t="n">
-        <v>28.49199306897803</v>
+        <v>28.49199306897808</v>
       </c>
       <c r="W14" t="n">
         <v>25.40752750961479</v>
       </c>
       <c r="X14" t="n">
-        <v>28.39495187288752</v>
+        <v>28.39495187288751</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>3.492459654808044e-10</v>
+        <v>-2.328306436538696e-10</v>
       </c>
     </row>
     <row r="15">
@@ -1631,58 +1631,58 @@
         <v>92723.7348333438</v>
       </c>
       <c r="I15" t="n">
-        <v>103.8356230246287</v>
+        <v>103.8356230246288</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2760519005232043</v>
+        <v>0.2760519005232047</v>
       </c>
       <c r="K15" t="n">
-        <v>230608.4400432078</v>
+        <v>230608.4400432079</v>
       </c>
       <c r="L15" t="n">
-        <v>205705.6884024436</v>
+        <v>205705.6884024437</v>
       </c>
       <c r="M15" t="n">
-        <v>35832.77134878899</v>
+        <v>35832.77134878885</v>
       </c>
       <c r="N15" t="n">
-        <v>31963.29196055848</v>
+        <v>31963.29196055836</v>
       </c>
       <c r="O15" t="n">
-        <v>227807.5176912017</v>
+        <v>227807.5176912018</v>
       </c>
       <c r="P15" t="n">
-        <v>203207.2297143173</v>
+        <v>203207.2297143174</v>
       </c>
       <c r="Q15" t="n">
-        <v>19.58957551278434</v>
+        <v>19.58957551278426</v>
       </c>
       <c r="R15" t="n">
-        <v>19.78365790496535</v>
+        <v>19.78365790496539</v>
       </c>
       <c r="S15" t="n">
-        <v>28.29791067679702</v>
+        <v>28.29791067679695</v>
       </c>
       <c r="T15" t="n">
-        <v>32.05207099696817</v>
+        <v>32.05207099696808</v>
       </c>
       <c r="U15" t="n">
-        <v>28.49199306897803</v>
+        <v>28.49199306897808</v>
       </c>
       <c r="V15" t="n">
-        <v>32.2703389781734</v>
+        <v>32.27033897817344</v>
       </c>
       <c r="W15" t="n">
-        <v>28.39495187288752</v>
+        <v>28.39495187288751</v>
       </c>
       <c r="X15" t="n">
-        <v>32.16120498757078</v>
+        <v>32.16120498757076</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.164153218269348e-10</v>
+        <v>5.820766091346741e-10</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.746229827404022e-10</v>
+        <v>-5.820766091346741e-10</v>
       </c>
     </row>
     <row r="16">
@@ -1690,7 +1690,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>43474.14387046653</v>
+        <v>43474.14387046656</v>
       </c>
       <c r="C16" t="n">
         <v>11.46400365670253</v>
@@ -1711,58 +1711,58 @@
         <v>86017.22004816629</v>
       </c>
       <c r="I16" t="n">
-        <v>103.8356230246287</v>
+        <v>103.8356230246288</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2760519005232043</v>
+        <v>0.2760519005232047</v>
       </c>
       <c r="K16" t="n">
-        <v>205705.6884024436</v>
+        <v>205705.6884024437</v>
       </c>
       <c r="L16" t="n">
-        <v>173940.9557781213</v>
+        <v>173940.9557781214</v>
       </c>
       <c r="M16" t="n">
-        <v>31963.29196055848</v>
+        <v>31963.29196055836</v>
       </c>
       <c r="N16" t="n">
-        <v>27027.57321206212</v>
+        <v>27027.57321206203</v>
       </c>
       <c r="O16" t="n">
-        <v>203207.2297143173</v>
+        <v>203207.2297143174</v>
       </c>
       <c r="P16" t="n">
-        <v>171828.3049537327</v>
+        <v>171828.3049537329</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.79876880141228</v>
+        <v>18.79876880141219</v>
       </c>
       <c r="R16" t="n">
-        <v>19.01703678261751</v>
+        <v>19.01703678261755</v>
       </c>
       <c r="S16" t="n">
-        <v>32.05207099696817</v>
+        <v>32.05207099696808</v>
       </c>
       <c r="T16" t="n">
-        <v>36.66815005009166</v>
+        <v>36.66815005009155</v>
       </c>
       <c r="U16" t="n">
-        <v>32.2703389781734</v>
+        <v>32.27033897817344</v>
       </c>
       <c r="V16" t="n">
-        <v>36.92786541911432</v>
+        <v>36.92786541911435</v>
       </c>
       <c r="W16" t="n">
-        <v>32.16120498757078</v>
+        <v>32.16120498757076</v>
       </c>
       <c r="X16" t="n">
-        <v>36.79800773460299</v>
+        <v>36.79800773460295</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1.164153218269348e-10</v>
+        <v>2.328306436538696e-10</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.91038304567337e-10</v>
+        <v>-5.820766091346741e-10</v>
       </c>
     </row>
     <row r="17">
@@ -1770,7 +1770,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>38503.67616132362</v>
+        <v>38503.67616132366</v>
       </c>
       <c r="C17" t="n">
         <v>12.21319636798589</v>
@@ -1791,58 +1791,58 @@
         <v>77643.23955338272</v>
       </c>
       <c r="I17" t="n">
-        <v>103.8356230246287</v>
+        <v>103.8356230246288</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2760519005232043</v>
+        <v>0.2760519005232047</v>
       </c>
       <c r="K17" t="n">
-        <v>173940.9557781213</v>
+        <v>173940.9557781214</v>
       </c>
       <c r="L17" t="n">
-        <v>136793.6190736684</v>
+        <v>136793.6190736686</v>
       </c>
       <c r="M17" t="n">
-        <v>27027.57321206212</v>
+        <v>27027.57321206203</v>
       </c>
       <c r="N17" t="n">
-        <v>21255.48602350242</v>
+        <v>21255.48602350236</v>
       </c>
       <c r="O17" t="n">
-        <v>171828.3049537327</v>
+        <v>171828.3049537329</v>
       </c>
       <c r="P17" t="n">
-        <v>135132.1521073967</v>
+        <v>135132.1521073968</v>
       </c>
       <c r="Q17" t="n">
-        <v>17.69430502234309</v>
+        <v>17.69430502234298</v>
       </c>
       <c r="R17" t="n">
-        <v>17.95402039136575</v>
+        <v>17.95402039136578</v>
       </c>
       <c r="S17" t="n">
-        <v>36.66815005009166</v>
+        <v>36.66815005009155</v>
       </c>
       <c r="T17" t="n">
-        <v>42.2815437463728</v>
+        <v>42.28154374637266</v>
       </c>
       <c r="U17" t="n">
-        <v>36.92786541911432</v>
+        <v>36.92786541911435</v>
       </c>
       <c r="V17" t="n">
-        <v>42.61557024220299</v>
+        <v>42.61557024220302</v>
       </c>
       <c r="W17" t="n">
-        <v>36.79800773460299</v>
+        <v>36.79800773460295</v>
       </c>
       <c r="X17" t="n">
-        <v>42.4485569942879</v>
+        <v>42.44855699428784</v>
       </c>
       <c r="Y17" t="n">
-        <v>-1.164153218269348e-10</v>
+        <v>1.746229827404022e-10</v>
       </c>
       <c r="Z17" t="n">
-        <v>-4.074536263942719e-10</v>
+        <v>-4.656612873077393e-10</v>
       </c>
     </row>
     <row r="18">
@@ -1850,7 +1850,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>33106.3700149315</v>
+        <v>33106.37001493154</v>
       </c>
       <c r="C18" t="n">
         <v>13.291644383338</v>
@@ -1871,58 +1871,58 @@
         <v>67246.54663088753</v>
       </c>
       <c r="I18" t="n">
-        <v>103.8356230246287</v>
+        <v>103.8356230246288</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2760519005232043</v>
+        <v>0.2760519005232047</v>
       </c>
       <c r="K18" t="n">
-        <v>136793.6190736684</v>
+        <v>136793.6190736686</v>
       </c>
       <c r="L18" t="n">
-        <v>96258.81121913625</v>
+        <v>96258.81121913638</v>
       </c>
       <c r="M18" t="n">
-        <v>21255.48602350242</v>
+        <v>21255.48602350236</v>
       </c>
       <c r="N18" t="n">
-        <v>14957.04134712195</v>
+        <v>14957.04134712191</v>
       </c>
       <c r="O18" t="n">
-        <v>135132.1521073967</v>
+        <v>135132.1521073968</v>
       </c>
       <c r="P18" t="n">
-        <v>95089.67163399921</v>
+        <v>95089.67163399936</v>
       </c>
       <c r="Q18" t="n">
-        <v>16.19700653572335</v>
+        <v>16.19700653572321</v>
       </c>
       <c r="R18" t="n">
-        <v>16.53103303155354</v>
+        <v>16.53103303155358</v>
       </c>
       <c r="S18" t="n">
-        <v>42.2815437463728</v>
+        <v>42.28154374637266</v>
       </c>
       <c r="T18" t="n">
-        <v>49.12654870122714</v>
+        <v>49.12654870122692</v>
       </c>
       <c r="U18" t="n">
-        <v>42.61557024220299</v>
+        <v>42.61557024220302</v>
       </c>
       <c r="V18" t="n">
-        <v>49.61149188961511</v>
+        <v>49.61149188961513</v>
       </c>
       <c r="W18" t="n">
-        <v>42.4485569942879</v>
+        <v>42.44855699428784</v>
       </c>
       <c r="X18" t="n">
-        <v>49.36902029542112</v>
+        <v>49.36902029542102</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.820766091346741e-11</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>-5.820766091346741e-11</v>
+        <v>1.164153218269348e-10</v>
       </c>
     </row>
     <row r="19">
@@ -1930,7 +1930,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>26610.08740263997</v>
+        <v>26610.08740263999</v>
       </c>
       <c r="C19" t="n">
         <v>14.94422825432905</v>
@@ -1951,58 +1951,58 @@
         <v>54248.53262366771</v>
       </c>
       <c r="I19" t="n">
-        <v>103.8356230246287</v>
+        <v>103.8356230246288</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2760519005232043</v>
+        <v>0.2760519005232047</v>
       </c>
       <c r="K19" t="n">
-        <v>96258.81121913625</v>
+        <v>96258.81121913638</v>
       </c>
       <c r="L19" t="n">
-        <v>55367.76596963337</v>
+        <v>55367.7659696335</v>
       </c>
       <c r="M19" t="n">
-        <v>14957.04134712195</v>
+        <v>14957.04134712191</v>
       </c>
       <c r="N19" t="n">
-        <v>8603.243219161472</v>
+        <v>8603.243219161457</v>
       </c>
       <c r="O19" t="n">
-        <v>95089.67163399921</v>
+        <v>95089.67163399936</v>
       </c>
       <c r="P19" t="n">
-        <v>54695.28055125089</v>
+        <v>54695.28055125102</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.19327533117855</v>
+        <v>14.19327533117833</v>
       </c>
       <c r="R19" t="n">
-        <v>14.67821851956651</v>
+        <v>14.67821851956653</v>
       </c>
       <c r="S19" t="n">
-        <v>49.12654870122714</v>
+        <v>49.12654870122692</v>
       </c>
       <c r="T19" t="n">
-        <v>57.59224287273218</v>
+        <v>57.59224287273177</v>
       </c>
       <c r="U19" t="n">
-        <v>49.61149188961511</v>
+        <v>49.61149188961513</v>
       </c>
       <c r="V19" t="n">
-        <v>58.47187038671452</v>
+        <v>58.47187038671453</v>
       </c>
       <c r="W19" t="n">
-        <v>49.36902029542112</v>
+        <v>49.36902029542102</v>
       </c>
       <c r="X19" t="n">
-        <v>58.03205662972335</v>
+        <v>58.03205662972315</v>
       </c>
       <c r="Y19" t="n">
+        <v>5.820766091346741e-11</v>
+      </c>
+      <c r="Z19" t="n">
         <v>-5.820766091346741e-11</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2010,7 +2010,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19840.17967533819</v>
+        <v>19840.1796753382</v>
       </c>
       <c r="C20" t="n">
         <v>17.80010592668061</v>
@@ -2031,58 +2031,58 @@
         <v>38974.45926823906</v>
       </c>
       <c r="I20" t="n">
-        <v>103.8356230246287</v>
+        <v>103.8356230246288</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2760519005232043</v>
+        <v>0.2760519005232047</v>
       </c>
       <c r="K20" t="n">
-        <v>55367.76596963337</v>
+        <v>55367.7659696335</v>
       </c>
       <c r="L20" t="n">
-        <v>18621.69573402152</v>
+        <v>18621.69573402165</v>
       </c>
       <c r="M20" t="n">
-        <v>8603.243219161472</v>
+        <v>8603.243219161457</v>
       </c>
       <c r="N20" t="n">
-        <v>2893.506262125055</v>
+        <v>2893.506262125064</v>
       </c>
       <c r="O20" t="n">
-        <v>54695.28055125089</v>
+        <v>54695.28055125102</v>
       </c>
       <c r="P20" t="n">
-        <v>18395.52047433065</v>
+        <v>18395.52047433078</v>
       </c>
       <c r="Q20" t="n">
-        <v>11.45011634786243</v>
+        <v>11.45011634786202</v>
       </c>
       <c r="R20" t="n">
-        <v>12.32974386184477</v>
+        <v>12.32974386184478</v>
       </c>
       <c r="S20" t="n">
-        <v>57.59224287273218</v>
+        <v>57.59224287273177</v>
       </c>
       <c r="T20" t="n">
-        <v>68.45977037954877</v>
+        <v>68.45977037954749</v>
       </c>
       <c r="U20" t="n">
-        <v>58.47187038671452</v>
+        <v>58.47187038671453</v>
       </c>
       <c r="V20" t="n">
-        <v>71.33892802852256</v>
+        <v>71.3389280285225</v>
       </c>
       <c r="W20" t="n">
-        <v>58.03205662972335</v>
+        <v>58.03205662972315</v>
       </c>
       <c r="X20" t="n">
-        <v>69.89934920403567</v>
+        <v>69.89934920403499</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>1.164153218269348e-10</v>
       </c>
     </row>
     <row r="21">
@@ -2090,7 +2090,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>10045.72056946627</v>
+        <v>10045.72056946628</v>
       </c>
       <c r="C21" t="n">
         <v>24.28436213742816</v>
@@ -2111,49 +2111,49 @@
         <v>16948.91230046818</v>
       </c>
       <c r="I21" t="n">
-        <v>103.8356230246287</v>
+        <v>103.8356230246288</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2760519005232043</v>
+        <v>0.2760519005232047</v>
       </c>
       <c r="K21" t="n">
-        <v>18621.69573402152</v>
+        <v>18621.69573402165</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>2893.506262125055</v>
+        <v>2893.506262125064</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>18395.52047433065</v>
+        <v>18395.52047433078</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.417608154846183</v>
+        <v>7.417608154844906</v>
       </c>
       <c r="R21" t="n">
-        <v>10.29676580381998</v>
+        <v>10.29676580381991</v>
       </c>
       <c r="S21" t="n">
-        <v>68.45977037954877</v>
+        <v>68.45977037954749</v>
       </c>
       <c r="T21" t="n">
         <v>83.95181749179723</v>
       </c>
       <c r="U21" t="n">
-        <v>71.33892802852256</v>
+        <v>71.3389280285225</v>
       </c>
       <c r="V21" t="n">
         <v>83.95181749179723</v>
       </c>
       <c r="W21" t="n">
-        <v>69.89934920403567</v>
+        <v>69.89934920403499</v>
       </c>
       <c r="X21" t="n">
         <v>83.95181749179723</v>

--- a/thrust_calc_results.xlsx
+++ b/thrust_calc_results.xlsx
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17126.73162235982</v>
+        <v>17940.93332486915</v>
       </c>
       <c r="C2" t="n">
         <v>14.10583813984129</v>
@@ -591,28 +591,28 @@
         <v>6976.910679550587</v>
       </c>
       <c r="I2" t="n">
-        <v>207.6712460492576</v>
+        <v>221.8862004022318</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2645344624757903</v>
+        <v>0.2826416649913952</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>20870.36326315545</v>
+        <v>21965.47734625929</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3242.912335015547</v>
+        <v>3300.302627711924</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>20616.87615337185</v>
+        <v>21716.1275925186</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -624,22 +624,22 @@
         <v>39.99961494556892</v>
       </c>
       <c r="T2" t="n">
-        <v>35.79136578756065</v>
+        <v>35.7647059822678</v>
       </c>
       <c r="U2" t="n">
         <v>39.99961494556892</v>
       </c>
       <c r="V2" t="n">
-        <v>37.86130849572596</v>
+        <v>38.77496892731731</v>
       </c>
       <c r="W2" t="n">
         <v>39.99961494556892</v>
       </c>
       <c r="X2" t="n">
-        <v>36.82633714164331</v>
+        <v>37.26983745479255</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>2.91038304567337e-11</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>26393.52910615976</v>
+        <v>27064.77401873633</v>
       </c>
       <c r="C3" t="n">
         <v>12.77628929067389</v>
@@ -671,55 +671,55 @@
         <v>18718.16443016667</v>
       </c>
       <c r="I3" t="n">
-        <v>207.6712460492576</v>
+        <v>221.8862004022318</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2645344624757903</v>
+        <v>0.2826416649913952</v>
       </c>
       <c r="K3" t="n">
-        <v>20870.36326315545</v>
+        <v>21965.47734625929</v>
       </c>
       <c r="L3" t="n">
-        <v>52168.67746883234</v>
+        <v>54333.58223350879</v>
       </c>
       <c r="M3" t="n">
-        <v>3242.912335015547</v>
+        <v>3300.302627711924</v>
       </c>
       <c r="N3" t="n">
-        <v>8106.157306988123</v>
+        <v>8163.595144850729</v>
       </c>
       <c r="O3" t="n">
-        <v>20616.87615337185</v>
+        <v>21716.1275925186</v>
       </c>
       <c r="P3" t="n">
-        <v>51535.04751682508</v>
+        <v>53716.79320879487</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.750682894377589</v>
+        <v>5.724023089084739</v>
       </c>
       <c r="R3" t="n">
-        <v>7.820625602542903</v>
+        <v>8.73428603413425</v>
       </c>
       <c r="S3" t="n">
-        <v>35.79136578756065</v>
+        <v>35.7647059822678</v>
       </c>
       <c r="T3" t="n">
-        <v>31.05760450931817</v>
+        <v>31.05372716166102</v>
       </c>
       <c r="U3" t="n">
-        <v>37.86130849572596</v>
+        <v>38.77496892731731</v>
       </c>
       <c r="V3" t="n">
-        <v>31.89669480758862</v>
+        <v>32.28160956063765</v>
       </c>
       <c r="W3" t="n">
-        <v>36.82633714164331</v>
+        <v>37.26983745479255</v>
       </c>
       <c r="X3" t="n">
-        <v>31.4771496584534</v>
+        <v>31.66766836114934</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.91038304567337e-11</v>
+        <v>8.731149137020111e-11</v>
       </c>
       <c r="Z3" t="n">
         <v>-2.91038304567337e-11</v>
@@ -730,7 +730,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30590.57201577535</v>
+        <v>31114.169914178</v>
       </c>
       <c r="C4" t="n">
         <v>11.87808673064982</v>
@@ -751,58 +751,58 @@
         <v>28137.86010431374</v>
       </c>
       <c r="I4" t="n">
-        <v>207.6712460492576</v>
+        <v>221.8862004022318</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2645344624757903</v>
+        <v>0.2826416649913952</v>
       </c>
       <c r="K4" t="n">
-        <v>52168.67746883234</v>
+        <v>54333.58223350879</v>
       </c>
       <c r="L4" t="n">
-        <v>86364.05951491563</v>
+        <v>89528.90069863791</v>
       </c>
       <c r="M4" t="n">
-        <v>8106.157306988123</v>
+        <v>8163.595144850729</v>
       </c>
       <c r="N4" t="n">
-        <v>13419.55913136281</v>
+        <v>13451.67517072847</v>
       </c>
       <c r="O4" t="n">
-        <v>51535.04751682508</v>
+        <v>53716.79320879487</v>
       </c>
       <c r="P4" t="n">
-        <v>85315.09953469987</v>
+        <v>88512.57817625569</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.957275443468548</v>
+        <v>8.953398095811394</v>
       </c>
       <c r="R4" t="n">
-        <v>9.796365741739001</v>
+        <v>10.18128049478804</v>
       </c>
       <c r="S4" t="n">
-        <v>31.05760450931817</v>
+        <v>31.05372716166102</v>
       </c>
       <c r="T4" t="n">
-        <v>27.50954341761175</v>
+        <v>27.50095086006838</v>
       </c>
       <c r="U4" t="n">
-        <v>31.89669480758862</v>
+        <v>32.28160956063765</v>
       </c>
       <c r="V4" t="n">
-        <v>28.02075556401547</v>
+        <v>28.25045601950946</v>
       </c>
       <c r="W4" t="n">
-        <v>31.4771496584534</v>
+        <v>31.66766836114934</v>
       </c>
       <c r="X4" t="n">
-        <v>27.76514949081361</v>
+        <v>27.87570343978892</v>
       </c>
       <c r="Y4" t="n">
-        <v>-1.164153218269348e-10</v>
+        <v>5.820766091346741e-11</v>
       </c>
       <c r="Z4" t="n">
-        <v>-5.820766091346741e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -810,7 +810,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32499.18525670044</v>
+        <v>32902.31392051722</v>
       </c>
       <c r="C5" t="n">
         <v>11.24349820547246</v>
@@ -831,55 +831,55 @@
         <v>35700.23289621456</v>
       </c>
       <c r="I5" t="n">
-        <v>207.6712460492576</v>
+        <v>221.8862004022318</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2645344624757903</v>
+        <v>0.2826416649913952</v>
       </c>
       <c r="K5" t="n">
-        <v>86364.05951491563</v>
+        <v>89528.90069863791</v>
       </c>
       <c r="L5" t="n">
-        <v>119813.6443566895</v>
+        <v>123913.8582092831</v>
       </c>
       <c r="M5" t="n">
-        <v>13419.55913136281</v>
+        <v>13451.67517072847</v>
       </c>
       <c r="N5" t="n">
-        <v>18617.07629562022</v>
+        <v>18617.99884479471</v>
       </c>
       <c r="O5" t="n">
-        <v>85315.09953469987</v>
+        <v>88512.57817625569</v>
       </c>
       <c r="P5" t="n">
-        <v>118358.4126466485</v>
+        <v>122507.2013202715</v>
       </c>
       <c r="Q5" t="n">
-        <v>11.79310929895032</v>
+        <v>11.78451674140695</v>
       </c>
       <c r="R5" t="n">
-        <v>12.30432144535405</v>
+        <v>12.53402190084803</v>
       </c>
       <c r="S5" t="n">
-        <v>27.50954341761175</v>
+        <v>27.50095086006838</v>
       </c>
       <c r="T5" t="n">
-        <v>24.86079305563892</v>
+        <v>24.8342305732847</v>
       </c>
       <c r="U5" t="n">
-        <v>28.02075556401547</v>
+        <v>28.25045601950946</v>
       </c>
       <c r="V5" t="n">
-        <v>25.23125337377944</v>
+        <v>25.37771145275556</v>
       </c>
       <c r="W5" t="n">
-        <v>27.76514949081361</v>
+        <v>27.87570343978892</v>
       </c>
       <c r="X5" t="n">
-        <v>25.04602321470918</v>
+        <v>25.10597101302013</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.820766091346741e-11</v>
+        <v>1.164153218269348e-10</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -890,7 +890,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>33169.00469766767</v>
+        <v>33475.97886086193</v>
       </c>
       <c r="C6" t="n">
         <v>10.78695667671407</v>
@@ -911,55 +911,55 @@
         <v>41691.15558417432</v>
       </c>
       <c r="I6" t="n">
-        <v>207.6712460492576</v>
+        <v>221.8862004022318</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2645344624757903</v>
+        <v>0.2826416649913952</v>
       </c>
       <c r="K6" t="n">
-        <v>119813.6443566895</v>
+        <v>123913.8582092831</v>
       </c>
       <c r="L6" t="n">
-        <v>150512.4129945929</v>
+        <v>155492.8776850787</v>
       </c>
       <c r="M6" t="n">
-        <v>18617.07629562022</v>
+        <v>18617.99884479471</v>
       </c>
       <c r="N6" t="n">
-        <v>23387.1617143727</v>
+        <v>23362.73165044362</v>
       </c>
       <c r="O6" t="n">
-        <v>118358.4126466485</v>
+        <v>122507.2013202715</v>
       </c>
       <c r="P6" t="n">
-        <v>148684.320398624</v>
+        <v>153727.7391384399</v>
       </c>
       <c r="Q6" t="n">
-        <v>14.24465094181202</v>
+        <v>14.21808845945781</v>
       </c>
       <c r="R6" t="n">
-        <v>14.61511125995254</v>
+        <v>14.76156933892866</v>
       </c>
       <c r="S6" t="n">
-        <v>24.86079305563892</v>
+        <v>24.8342305732847</v>
       </c>
       <c r="T6" t="n">
-        <v>22.96392669402138</v>
+        <v>22.90970215929503</v>
       </c>
       <c r="U6" t="n">
-        <v>25.23125337377944</v>
+        <v>25.37771145275556</v>
       </c>
       <c r="V6" t="n">
-        <v>23.25978009801236</v>
+        <v>23.34375634007426</v>
       </c>
       <c r="W6" t="n">
-        <v>25.04602321470918</v>
+        <v>25.10597101302013</v>
       </c>
       <c r="X6" t="n">
-        <v>23.11185339601687</v>
+        <v>23.12672924968464</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.492459654808044e-10</v>
+        <v>-4.656612873077393e-10</v>
       </c>
       <c r="Z6" t="n">
         <v>-1.164153218269348e-10</v>
@@ -970,7 +970,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>33075.71777992717</v>
+        <v>33305.17811148349</v>
       </c>
       <c r="C7" t="n">
         <v>10.46045467471967</v>
@@ -991,58 +991,58 @@
         <v>46296.37332020365</v>
       </c>
       <c r="I7" t="n">
-        <v>207.6712460492576</v>
+        <v>221.8862004022318</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2645344624757903</v>
+        <v>0.2826416649913952</v>
       </c>
       <c r="K7" t="n">
-        <v>150512.4129945929</v>
+        <v>155492.8776850787</v>
       </c>
       <c r="L7" t="n">
-        <v>177291.5195301108</v>
+        <v>183104.321383244</v>
       </c>
       <c r="M7" t="n">
-        <v>23387.1617143727</v>
+        <v>23362.73165044362</v>
       </c>
       <c r="N7" t="n">
-        <v>27548.19589522177</v>
+        <v>27511.33806383866</v>
       </c>
       <c r="O7" t="n">
-        <v>148684.320398624</v>
+        <v>153727.7391384399</v>
       </c>
       <c r="P7" t="n">
-        <v>175138.1734523178</v>
+        <v>181025.7406756163</v>
       </c>
       <c r="Q7" t="n">
-        <v>16.33784048559876</v>
+        <v>16.28361595087241</v>
       </c>
       <c r="R7" t="n">
-        <v>16.63369388958974</v>
+        <v>16.71767013165164</v>
       </c>
       <c r="S7" t="n">
-        <v>22.96392669402138</v>
+        <v>22.90970215929503</v>
       </c>
       <c r="T7" t="n">
-        <v>21.7274104964751</v>
+        <v>21.63670789852929</v>
       </c>
       <c r="U7" t="n">
-        <v>23.25978009801236</v>
+        <v>23.34375634007426</v>
       </c>
       <c r="V7" t="n">
-        <v>21.97904466357381</v>
+        <v>22.00577568918837</v>
       </c>
       <c r="W7" t="n">
-        <v>23.11185339601687</v>
+        <v>23.12672924968464</v>
       </c>
       <c r="X7" t="n">
-        <v>21.85322758002446</v>
+        <v>21.82124179385883</v>
       </c>
       <c r="Y7" t="n">
-        <v>-2.328306436538696e-10</v>
+        <v>3.492459654808044e-10</v>
       </c>
       <c r="Z7" t="n">
-        <v>-1.164153218269348e-10</v>
+        <v>-4.656612873077393e-10</v>
       </c>
     </row>
     <row r="8">
@@ -1050,7 +1050,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>34936.28971150931</v>
+        <v>35127.37110508158</v>
       </c>
       <c r="C8" t="n">
         <v>10.07659006958534</v>
@@ -1071,58 +1071,58 @@
         <v>53576.08621085047</v>
       </c>
       <c r="I8" t="n">
-        <v>51.9178115123144</v>
+        <v>55.47155010055796</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3244184923225052</v>
+        <v>0.3466247156074144</v>
       </c>
       <c r="K8" t="n">
-        <v>177291.5195301108</v>
+        <v>183104.321383244</v>
       </c>
       <c r="L8" t="n">
-        <v>201589.3684865372</v>
+        <v>208291.3322691044</v>
       </c>
       <c r="M8" t="n">
-        <v>27548.19589522177</v>
+        <v>27511.33806383866</v>
       </c>
       <c r="N8" t="n">
-        <v>31323.68332213425</v>
+        <v>31295.67458885253</v>
       </c>
       <c r="O8" t="n">
-        <v>175138.1734523178</v>
+        <v>181025.7406756163</v>
       </c>
       <c r="P8" t="n">
-        <v>199140.9057675884</v>
+        <v>205926.8313029341</v>
       </c>
       <c r="Q8" t="n">
-        <v>18.09540437795438</v>
+        <v>18.00470178000857</v>
       </c>
       <c r="R8" t="n">
-        <v>18.34703854505309</v>
+        <v>18.37376957066765</v>
       </c>
       <c r="S8" t="n">
-        <v>21.7274104964751</v>
+        <v>21.63670789852929</v>
       </c>
       <c r="T8" t="n">
-        <v>20.88124660072942</v>
+        <v>20.74442894523895</v>
       </c>
       <c r="U8" t="n">
-        <v>21.97904466357381</v>
+        <v>22.00577568918837</v>
       </c>
       <c r="V8" t="n">
-        <v>21.10277799855105</v>
+        <v>21.06909609436599</v>
       </c>
       <c r="W8" t="n">
-        <v>21.85322758002446</v>
+        <v>21.82124179385883</v>
       </c>
       <c r="X8" t="n">
-        <v>20.99201229964023</v>
+        <v>20.90676251980247</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.820766091346741e-11</v>
+        <v>-5.820766091346741e-11</v>
       </c>
       <c r="Z8" t="n">
-        <v>-5.820766091346741e-11</v>
+        <v>7.566995918750763e-10</v>
       </c>
     </row>
     <row r="9">
@@ -1130,7 +1130,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>38956.74174810761</v>
+        <v>39104.16991316389</v>
       </c>
       <c r="C9" t="n">
         <v>9.939495248171937</v>
@@ -1151,58 +1151,58 @@
         <v>65158.84795942099</v>
       </c>
       <c r="I9" t="n">
-        <v>51.9178115123144</v>
+        <v>55.47155010055796</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3244184923225052</v>
+        <v>0.3466247156074144</v>
       </c>
       <c r="K9" t="n">
-        <v>201589.3684865372</v>
+        <v>208291.3322691044</v>
       </c>
       <c r="L9" t="n">
-        <v>223451.2939094523</v>
+        <v>231109.1012351985</v>
       </c>
       <c r="M9" t="n">
-        <v>31323.68332213425</v>
+        <v>31295.67458885253</v>
       </c>
       <c r="N9" t="n">
-        <v>34720.66816265794</v>
+        <v>34724.03363109973</v>
       </c>
       <c r="O9" t="n">
-        <v>199140.9057675884</v>
+        <v>205926.8313029341</v>
       </c>
       <c r="P9" t="n">
-        <v>220737.3007720875</v>
+        <v>228485.5753918122</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.29723182044355</v>
+        <v>19.16041416495309</v>
       </c>
       <c r="R9" t="n">
-        <v>19.51876321826518</v>
+        <v>19.48508131408012</v>
       </c>
       <c r="S9" t="n">
-        <v>20.88124660072942</v>
+        <v>20.74442894523895</v>
       </c>
       <c r="T9" t="n">
-        <v>20.41044569971109</v>
+        <v>20.21875882002425</v>
       </c>
       <c r="U9" t="n">
-        <v>21.10277799855105</v>
+        <v>21.06909609436599</v>
       </c>
       <c r="V9" t="n">
-        <v>20.61040540938293</v>
+        <v>20.51147440047682</v>
       </c>
       <c r="W9" t="n">
-        <v>20.99201229964023</v>
+        <v>20.90676251980247</v>
       </c>
       <c r="X9" t="n">
-        <v>20.51042555454701</v>
+        <v>20.36511661025054</v>
       </c>
       <c r="Y9" t="n">
-        <v>-2.91038304567337e-10</v>
+        <v>2.91038304567337e-10</v>
       </c>
       <c r="Z9" t="n">
-        <v>-1.164153218269348e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1210,7 +1210,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>44324.77245843503</v>
+        <v>44431.26277690462</v>
       </c>
       <c r="C10" t="n">
         <v>9.874029601984471</v>
@@ -1231,58 +1231,58 @@
         <v>75659.45807402786</v>
       </c>
       <c r="I10" t="n">
-        <v>51.9178115123144</v>
+        <v>55.47155010055796</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3244184923225052</v>
+        <v>0.3466247156074144</v>
       </c>
       <c r="K10" t="n">
-        <v>223451.2939094523</v>
+        <v>231109.1012351985</v>
       </c>
       <c r="L10" t="n">
-        <v>241607.8345365945</v>
+        <v>250322.840335387</v>
       </c>
       <c r="M10" t="n">
-        <v>34720.66816265794</v>
+        <v>34724.03363109973</v>
       </c>
       <c r="N10" t="n">
-        <v>37541.8969461989</v>
+        <v>37610.8888831356</v>
       </c>
       <c r="O10" t="n">
-        <v>220737.3007720875</v>
+        <v>228485.5753918122</v>
       </c>
       <c r="P10" t="n">
-        <v>238673.3158171298</v>
+        <v>247481.2021770464</v>
       </c>
       <c r="Q10" t="n">
-        <v>20.02849989258319</v>
+        <v>19.83681301289636</v>
       </c>
       <c r="R10" t="n">
-        <v>20.22845960225504</v>
+        <v>20.12952859334893</v>
       </c>
       <c r="S10" t="n">
-        <v>20.41044569971109</v>
+        <v>20.21875882002425</v>
       </c>
       <c r="T10" t="n">
-        <v>20.38463223308755</v>
+        <v>20.12344825366479</v>
       </c>
       <c r="U10" t="n">
-        <v>20.61040540938293</v>
+        <v>20.51147440047682</v>
       </c>
       <c r="V10" t="n">
-        <v>20.56958952352887</v>
+        <v>20.39372103921006</v>
       </c>
       <c r="W10" t="n">
-        <v>20.51042555454701</v>
+        <v>20.36511661025054</v>
       </c>
       <c r="X10" t="n">
-        <v>20.47711087830821</v>
+        <v>20.25858464643742</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.328306436538696e-10</v>
+        <v>2.91038304567337e-10</v>
       </c>
       <c r="Z10" t="n">
-        <v>-4.074536263942719e-10</v>
+        <v>-7.566995918750763e-10</v>
       </c>
     </row>
     <row r="11">
@@ -1290,7 +1290,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>62371.03486510162</v>
+        <v>62429.37498220086</v>
       </c>
       <c r="C11" t="n">
         <v>12.3680178772166</v>
@@ -1311,58 +1311,58 @@
         <v>108518.5126056569</v>
       </c>
       <c r="I11" t="n">
-        <v>103.8356230246288</v>
+        <v>110.9431002011159</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2760519005232047</v>
+        <v>0.2949474637734891</v>
       </c>
       <c r="K11" t="n">
-        <v>241607.8345365945</v>
+        <v>250322.840335387</v>
       </c>
       <c r="L11" t="n">
-        <v>254320.3536140678</v>
+        <v>264318.4631434614</v>
       </c>
       <c r="M11" t="n">
-        <v>37541.8969461989</v>
+        <v>37610.8888831356</v>
       </c>
       <c r="N11" t="n">
-        <v>39517.2140216922</v>
+        <v>39713.72461949709</v>
       </c>
       <c r="O11" t="n">
-        <v>238673.3158171298</v>
+        <v>247481.2021770464</v>
       </c>
       <c r="P11" t="n">
-        <v>251231.4312707474</v>
+        <v>261317.9481692142</v>
       </c>
       <c r="Q11" t="n">
-        <v>20.38425723250162</v>
+        <v>20.12307325307885</v>
       </c>
       <c r="R11" t="n">
-        <v>20.56921452294294</v>
+        <v>20.39334603862413</v>
       </c>
       <c r="S11" t="n">
-        <v>20.38463223308755</v>
+        <v>20.12344825366479</v>
       </c>
       <c r="T11" t="n">
-        <v>21.27645422242136</v>
+        <v>20.90284740150824</v>
       </c>
       <c r="U11" t="n">
-        <v>20.56958952352887</v>
+        <v>20.39372103921006</v>
       </c>
       <c r="V11" t="n">
-        <v>21.45212167900729</v>
+        <v>21.15876213089059</v>
       </c>
       <c r="W11" t="n">
-        <v>20.47711087830821</v>
+        <v>20.25858464643742</v>
       </c>
       <c r="X11" t="n">
-        <v>21.36428795071433</v>
+        <v>21.03080476619941</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.492459654808044e-10</v>
+        <v>-3.492459654808044e-10</v>
       </c>
       <c r="Z11" t="n">
-        <v>-5.820766091346741e-10</v>
+        <v>-8.149072527885437e-10</v>
       </c>
     </row>
     <row r="12">
@@ -1370,7 +1370,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>71242.44899836992</v>
+        <v>71223.73147550289</v>
       </c>
       <c r="C12" t="n">
         <v>12.50482896617596</v>
@@ -1391,58 +1391,58 @@
         <v>122436.3747918735</v>
       </c>
       <c r="I12" t="n">
-        <v>103.8356230246288</v>
+        <v>110.9431002011159</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2760519005232047</v>
+        <v>0.2949474637734891</v>
       </c>
       <c r="K12" t="n">
-        <v>254320.3536140678</v>
+        <v>264318.4631434614</v>
       </c>
       <c r="L12" t="n">
-        <v>256078.2094044913</v>
+        <v>267505.9118809285</v>
       </c>
       <c r="M12" t="n">
-        <v>39517.2140216922</v>
+        <v>39713.72461949709</v>
       </c>
       <c r="N12" t="n">
-        <v>39790.35599598675</v>
+        <v>40192.63729132897</v>
       </c>
       <c r="O12" t="n">
-        <v>251231.4312707474</v>
+        <v>261317.9481692142</v>
       </c>
       <c r="P12" t="n">
-        <v>252967.9365088056</v>
+        <v>264469.2133289143</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.60783106858031</v>
+        <v>20.23422424766718</v>
       </c>
       <c r="R12" t="n">
-        <v>20.78349852516624</v>
+        <v>20.49013897704953</v>
       </c>
       <c r="S12" t="n">
-        <v>21.27645422242136</v>
+        <v>20.90284740150824</v>
       </c>
       <c r="T12" t="n">
-        <v>23.07765734025179</v>
+        <v>22.53917363198457</v>
       </c>
       <c r="U12" t="n">
-        <v>21.45212167900729</v>
+        <v>21.15876213089059</v>
       </c>
       <c r="V12" t="n">
-        <v>23.2521001425032</v>
+        <v>22.79200642772498</v>
       </c>
       <c r="W12" t="n">
-        <v>21.36428795071433</v>
+        <v>21.03080476619941</v>
       </c>
       <c r="X12" t="n">
-        <v>23.1648787413775</v>
+        <v>22.66559002985477</v>
       </c>
       <c r="Y12" t="n">
+        <v>-1.164153218269348e-10</v>
+      </c>
+      <c r="Z12" t="n">
         <v>-2.328306436538696e-10</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>6.984919309616089e-10</v>
       </c>
     </row>
     <row r="13">
@@ -1450,79 +1450,79 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>58104.17109555474</v>
+        <v>82485.17322936191</v>
       </c>
       <c r="C13" t="n">
-        <v>10.26501851563292</v>
+        <v>10.327955592437</v>
       </c>
       <c r="D13" t="n">
-        <v>9.939726703072068</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
         <v>2.633054056944971</v>
       </c>
       <c r="F13" t="n">
-        <v>5.19923563880495</v>
+        <v>5.217597167510036</v>
       </c>
       <c r="G13" t="n">
-        <v>4036.545955867396</v>
+        <v>4036.624824100284</v>
       </c>
       <c r="H13" t="n">
-        <v>101962.1203276141</v>
+        <v>102570.1405098137</v>
       </c>
       <c r="I13" t="n">
-        <v>103.8356230246288</v>
+        <v>110.9431002011159</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2760519005232047</v>
+        <v>0.2949474637734891</v>
       </c>
       <c r="K13" t="n">
-        <v>256078.2094044913</v>
+        <v>267505.9118809285</v>
       </c>
       <c r="L13" t="n">
-        <v>247679.9309536194</v>
+        <v>261054.5459405742</v>
       </c>
       <c r="M13" t="n">
-        <v>39790.35599598675</v>
+        <v>40192.63729132897</v>
       </c>
       <c r="N13" t="n">
-        <v>38485.40119295712</v>
+        <v>39223.3225967449</v>
       </c>
       <c r="O13" t="n">
-        <v>252967.9365088056</v>
+        <v>264469.2133289143</v>
       </c>
       <c r="P13" t="n">
-        <v>244671.6618086508</v>
+        <v>258091.0826059495</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.44460328330682</v>
+        <v>19.9061195750396</v>
       </c>
       <c r="R13" t="n">
-        <v>20.61904608555823</v>
+        <v>20.15895237078001</v>
       </c>
       <c r="S13" t="n">
-        <v>23.07765734025179</v>
+        <v>22.53917363198457</v>
       </c>
       <c r="T13" t="n">
-        <v>25.31730615616778</v>
+        <v>24.53766658509182</v>
       </c>
       <c r="U13" t="n">
-        <v>23.2521001425032</v>
+        <v>22.79200642772498</v>
       </c>
       <c r="V13" t="n">
-        <v>25.49774886306181</v>
+        <v>24.79681068630537</v>
       </c>
       <c r="W13" t="n">
-        <v>23.1648787413775</v>
+        <v>22.66559002985477</v>
       </c>
       <c r="X13" t="n">
-        <v>25.40752750961479</v>
+        <v>24.6672386356986</v>
       </c>
       <c r="Y13" t="n">
-        <v>-4.074536263942719e-10</v>
+        <v>-124999.9999999999</v>
       </c>
       <c r="Z13" t="n">
-        <v>5.820766091346741e-10</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="14">
@@ -1530,79 +1530,79 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>53281.20743256762</v>
+        <v>77271.7431926564</v>
       </c>
       <c r="C14" t="n">
-        <v>10.53969822999045</v>
+        <v>10.60660172297659</v>
       </c>
       <c r="D14" t="n">
-        <v>9.939726703072068</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>5.19923563880495</v>
+        <v>5.217597167510036</v>
       </c>
       <c r="F14" t="n">
-        <v>8.708335164012681</v>
+        <v>8.757022693565062</v>
       </c>
       <c r="G14" t="n">
-        <v>4007.394400845123</v>
+        <v>4006.611246223633</v>
       </c>
       <c r="H14" t="n">
-        <v>97988.89922008957</v>
+        <v>98540.95218659885</v>
       </c>
       <c r="I14" t="n">
-        <v>103.8356230246288</v>
+        <v>110.9431002011159</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2760519005232047</v>
+        <v>0.2949474637734891</v>
       </c>
       <c r="K14" t="n">
-        <v>247679.9309536194</v>
+        <v>261054.5459405742</v>
       </c>
       <c r="L14" t="n">
-        <v>230608.4400432079</v>
+        <v>243529.9412441136</v>
       </c>
       <c r="M14" t="n">
-        <v>38485.40119295712</v>
+        <v>39223.3225967449</v>
       </c>
       <c r="N14" t="n">
-        <v>35832.77134878885</v>
+        <v>36590.2589934542</v>
       </c>
       <c r="O14" t="n">
-        <v>244671.6618086508</v>
+        <v>258091.0826059495</v>
       </c>
       <c r="P14" t="n">
-        <v>227807.5176912018</v>
+        <v>240765.4153510286</v>
       </c>
       <c r="Q14" t="n">
-        <v>20.11807051736283</v>
+        <v>19.32006941758179</v>
       </c>
       <c r="R14" t="n">
-        <v>20.29851322425686</v>
+        <v>19.57921351879533</v>
       </c>
       <c r="S14" t="n">
-        <v>25.31730615616778</v>
+        <v>24.53766658509182</v>
       </c>
       <c r="T14" t="n">
-        <v>28.29791067679695</v>
+        <v>27.37489233129777</v>
       </c>
       <c r="U14" t="n">
-        <v>25.49774886306181</v>
+        <v>24.79681068630537</v>
       </c>
       <c r="V14" t="n">
-        <v>28.49199306897808</v>
+        <v>27.65296468725347</v>
       </c>
       <c r="W14" t="n">
-        <v>25.40752750961479</v>
+        <v>24.6672386356986</v>
       </c>
       <c r="X14" t="n">
-        <v>28.39495187288751</v>
+        <v>27.51392850927562</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-124999.9999999998</v>
       </c>
       <c r="Z14" t="n">
-        <v>-2.328306436538696e-10</v>
+        <v>124999.9999999996</v>
       </c>
     </row>
     <row r="15">
@@ -1610,79 +1610,79 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>48538.51240245363</v>
+        <v>72327.10441174961</v>
       </c>
       <c r="C15" t="n">
-        <v>10.92717340841417</v>
+        <v>11.00038197404725</v>
       </c>
       <c r="D15" t="n">
-        <v>9.939726703072068</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>8.708335164012681</v>
+        <v>8.757022693565062</v>
       </c>
       <c r="F15" t="n">
-        <v>13.25330219555589</v>
+        <v>13.3463549614923</v>
       </c>
       <c r="G15" t="n">
-        <v>3889.894774972113</v>
+        <v>3887.607788104114</v>
       </c>
       <c r="H15" t="n">
-        <v>92723.7348333438</v>
+        <v>93194.99991319144</v>
       </c>
       <c r="I15" t="n">
-        <v>103.8356230246288</v>
+        <v>110.9431002011159</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2760519005232047</v>
+        <v>0.2949474637734891</v>
       </c>
       <c r="K15" t="n">
-        <v>230608.4400432079</v>
+        <v>243529.9412441136</v>
       </c>
       <c r="L15" t="n">
-        <v>205705.6884024437</v>
+        <v>215761.7221821133</v>
       </c>
       <c r="M15" t="n">
-        <v>35832.77134878885</v>
+        <v>36590.2589934542</v>
       </c>
       <c r="N15" t="n">
-        <v>31963.29196055836</v>
+        <v>32418.09715546863</v>
       </c>
       <c r="O15" t="n">
-        <v>227807.5176912018</v>
+        <v>240765.4153510286</v>
       </c>
       <c r="P15" t="n">
-        <v>203207.2297143174</v>
+        <v>213312.4181472097</v>
       </c>
       <c r="Q15" t="n">
-        <v>19.58957551278426</v>
+        <v>18.6178696377327</v>
       </c>
       <c r="R15" t="n">
-        <v>19.78365790496539</v>
+        <v>18.89594199368841</v>
       </c>
       <c r="S15" t="n">
-        <v>28.29791067679695</v>
+        <v>27.37489233129777</v>
       </c>
       <c r="T15" t="n">
-        <v>32.05207099696808</v>
+        <v>31.09283096951257</v>
       </c>
       <c r="U15" t="n">
-        <v>28.49199306897808</v>
+        <v>27.65296468725347</v>
       </c>
       <c r="V15" t="n">
-        <v>32.27033897817344</v>
+        <v>31.40744240077871</v>
       </c>
       <c r="W15" t="n">
-        <v>28.39495187288751</v>
+        <v>27.51392850927562</v>
       </c>
       <c r="X15" t="n">
-        <v>32.16120498757076</v>
+        <v>31.25013668514564</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.820766091346741e-10</v>
+        <v>-124999.9999999997</v>
       </c>
       <c r="Z15" t="n">
-        <v>-5.820766091346741e-10</v>
+        <v>124999.9999999998</v>
       </c>
     </row>
     <row r="16">
@@ -1690,79 +1690,79 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>43474.14387046656</v>
+        <v>67262.00195034371</v>
       </c>
       <c r="C16" t="n">
-        <v>11.46400365670253</v>
+        <v>11.54700540161127</v>
       </c>
       <c r="D16" t="n">
-        <v>9.939726703072068</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>13.25330219555589</v>
+        <v>13.3463549614923</v>
       </c>
       <c r="F16" t="n">
-        <v>18.97384502774857</v>
+        <v>19.12879499083992</v>
       </c>
       <c r="G16" t="n">
-        <v>3703.845412949474</v>
+        <v>3699.083937823591</v>
       </c>
       <c r="H16" t="n">
-        <v>86017.22004816629</v>
+        <v>86378.42395945509</v>
       </c>
       <c r="I16" t="n">
-        <v>103.8356230246288</v>
+        <v>110.9431002011159</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2760519005232047</v>
+        <v>0.2949474637734891</v>
       </c>
       <c r="K16" t="n">
-        <v>205705.6884024437</v>
+        <v>215761.7221821133</v>
       </c>
       <c r="L16" t="n">
-        <v>173940.9557781214</v>
+        <v>178642.9802677165</v>
       </c>
       <c r="M16" t="n">
-        <v>31963.29196055836</v>
+        <v>32418.09715546863</v>
       </c>
       <c r="N16" t="n">
-        <v>27027.57321206203</v>
+        <v>26841.02366208029</v>
       </c>
       <c r="O16" t="n">
-        <v>203207.2297143174</v>
+        <v>213312.4181472097</v>
       </c>
       <c r="P16" t="n">
-        <v>171828.3049537329</v>
+        <v>176615.0442281273</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.79876880141219</v>
+        <v>17.74647600802028</v>
       </c>
       <c r="R16" t="n">
-        <v>19.01703678261755</v>
+        <v>18.06108743928641</v>
       </c>
       <c r="S16" t="n">
-        <v>32.05207099696808</v>
+        <v>31.09283096951257</v>
       </c>
       <c r="T16" t="n">
-        <v>36.66815005009155</v>
+        <v>35.85618792963298</v>
       </c>
       <c r="U16" t="n">
-        <v>32.27033897817344</v>
+        <v>31.40744240077871</v>
       </c>
       <c r="V16" t="n">
-        <v>36.92786541911435</v>
+        <v>36.23802686629523</v>
       </c>
       <c r="W16" t="n">
-        <v>32.16120498757076</v>
+        <v>31.25013668514564</v>
       </c>
       <c r="X16" t="n">
-        <v>36.79800773460295</v>
+        <v>36.0471073979641</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.328306436538696e-10</v>
+        <v>-124999.9999999999</v>
       </c>
       <c r="Z16" t="n">
-        <v>-5.820766091346741e-10</v>
+        <v>124999.9999999999</v>
       </c>
     </row>
     <row r="17">
@@ -1770,79 +1770,79 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>38503.67616132366</v>
+        <v>62546.36787304549</v>
       </c>
       <c r="C17" t="n">
-        <v>12.21319636798589</v>
+        <v>12.31174025844619</v>
       </c>
       <c r="D17" t="n">
-        <v>9.93972670307204</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>18.97384502774857</v>
+        <v>19.12879499083992</v>
       </c>
       <c r="F17" t="n">
-        <v>26.08453721064944</v>
+        <v>26.32503002402403</v>
       </c>
       <c r="G17" t="n">
-        <v>3382.563080247126</v>
+        <v>3371.815887377009</v>
       </c>
       <c r="H17" t="n">
-        <v>77643.23955338272</v>
+        <v>77857.68535147833</v>
       </c>
       <c r="I17" t="n">
-        <v>103.8356230246288</v>
+        <v>110.9431002011159</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2760519005232047</v>
+        <v>0.2949474637734891</v>
       </c>
       <c r="K17" t="n">
-        <v>173940.9557781214</v>
+        <v>178642.9802677165</v>
       </c>
       <c r="L17" t="n">
-        <v>136793.6190736686</v>
+        <v>133522.9455976264</v>
       </c>
       <c r="M17" t="n">
-        <v>27027.57321206203</v>
+        <v>26841.02366208029</v>
       </c>
       <c r="N17" t="n">
-        <v>21255.48602350236</v>
+        <v>20061.75969996518</v>
       </c>
       <c r="O17" t="n">
-        <v>171828.3049537329</v>
+        <v>176615.0442281273</v>
       </c>
       <c r="P17" t="n">
-        <v>135132.1521073968</v>
+        <v>132007.2073744746</v>
       </c>
       <c r="Q17" t="n">
-        <v>17.69430502234298</v>
+        <v>16.72739293879306</v>
       </c>
       <c r="R17" t="n">
-        <v>17.95402039136578</v>
+        <v>17.10923187545531</v>
       </c>
       <c r="S17" t="n">
-        <v>36.66815005009155</v>
+        <v>35.85618792963298</v>
       </c>
       <c r="T17" t="n">
-        <v>42.28154374637266</v>
+        <v>42.0669216735144</v>
       </c>
       <c r="U17" t="n">
-        <v>36.92786541911435</v>
+        <v>36.23802686629523</v>
       </c>
       <c r="V17" t="n">
-        <v>42.61557024220302</v>
+        <v>42.58265299750171</v>
       </c>
       <c r="W17" t="n">
-        <v>36.79800773460295</v>
+        <v>36.0471073979641</v>
       </c>
       <c r="X17" t="n">
-        <v>42.44855699428784</v>
+        <v>42.32478733550806</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.746229827404022e-10</v>
+        <v>-125000.0000000001</v>
       </c>
       <c r="Z17" t="n">
-        <v>-4.656612873077393e-10</v>
+        <v>124999.9999999998</v>
       </c>
     </row>
     <row r="18">
@@ -1850,79 +1850,79 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>33106.37001493154</v>
+        <v>29762.86794659715</v>
       </c>
       <c r="C18" t="n">
-        <v>13.291644383338</v>
+        <v>11.95144528831471</v>
       </c>
       <c r="D18" t="n">
-        <v>9.939726703072068</v>
+        <v>8.954381112631211</v>
       </c>
       <c r="E18" t="n">
-        <v>26.08453721064944</v>
+        <v>26.32503002402403</v>
       </c>
       <c r="F18" t="n">
-        <v>34.9332733700486</v>
+        <v>34.258167199464</v>
       </c>
       <c r="G18" t="n">
-        <v>2938.392420201765</v>
+        <v>2947.999793917025</v>
       </c>
       <c r="H18" t="n">
-        <v>67246.54663088753</v>
+        <v>60780.57442705733</v>
       </c>
       <c r="I18" t="n">
-        <v>103.8356230246288</v>
+        <v>110.9431002011159</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2760519005232047</v>
+        <v>0.2949474637734891</v>
       </c>
       <c r="K18" t="n">
-        <v>136793.6190736686</v>
+        <v>133522.9455976264</v>
       </c>
       <c r="L18" t="n">
-        <v>96258.81121913638</v>
+        <v>97638.80712658356</v>
       </c>
       <c r="M18" t="n">
-        <v>21255.48602350236</v>
+        <v>20061.75969996518</v>
       </c>
       <c r="N18" t="n">
-        <v>14957.04134712191</v>
+        <v>14670.18479256489</v>
       </c>
       <c r="O18" t="n">
-        <v>135132.1521073968</v>
+        <v>132007.2073744746</v>
       </c>
       <c r="P18" t="n">
-        <v>95089.67163399936</v>
+        <v>96530.42181226694</v>
       </c>
       <c r="Q18" t="n">
-        <v>16.19700653572321</v>
+        <v>15.74189164949037</v>
       </c>
       <c r="R18" t="n">
-        <v>16.53103303155358</v>
+        <v>16.25762297347768</v>
       </c>
       <c r="S18" t="n">
-        <v>42.28154374637266</v>
+        <v>42.0669216735144</v>
       </c>
       <c r="T18" t="n">
-        <v>49.12654870122692</v>
+        <v>48.00225644494672</v>
       </c>
       <c r="U18" t="n">
-        <v>42.61557024220302</v>
+        <v>42.58265299750171</v>
       </c>
       <c r="V18" t="n">
-        <v>49.61149188961513</v>
+        <v>48.71398858621021</v>
       </c>
       <c r="W18" t="n">
-        <v>42.44855699428784</v>
+        <v>42.32478733550806</v>
       </c>
       <c r="X18" t="n">
-        <v>49.36902029542102</v>
+        <v>48.35812251557846</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1.164153218269348e-10</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.164153218269348e-10</v>
+        <v>-1.164153218269348e-10</v>
       </c>
     </row>
     <row r="19">
@@ -1930,79 +1930,79 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>26610.08740263999</v>
+        <v>24552.83512015656</v>
       </c>
       <c r="C19" t="n">
-        <v>14.94422825432905</v>
+        <v>13.24672720197736</v>
       </c>
       <c r="D19" t="n">
-        <v>9.939726703072068</v>
+        <v>8.954381112631239</v>
       </c>
       <c r="E19" t="n">
-        <v>34.9332733700486</v>
+        <v>34.258167199464</v>
       </c>
       <c r="F19" t="n">
-        <v>46.14212652486975</v>
+        <v>44.05290063623465</v>
       </c>
       <c r="G19" t="n">
-        <v>2369.452663956918</v>
+        <v>2444.728282236571</v>
       </c>
       <c r="H19" t="n">
-        <v>54248.53262366771</v>
+        <v>50389.47278541525</v>
       </c>
       <c r="I19" t="n">
-        <v>103.8356230246288</v>
+        <v>110.9431002011159</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2760519005232047</v>
+        <v>0.2949474637734891</v>
       </c>
       <c r="K19" t="n">
-        <v>96258.81121913638</v>
+        <v>97638.80712658356</v>
       </c>
       <c r="L19" t="n">
-        <v>55367.7659696335</v>
+        <v>61154.37191590241</v>
       </c>
       <c r="M19" t="n">
-        <v>14957.04134712191</v>
+        <v>14670.18479256489</v>
       </c>
       <c r="N19" t="n">
-        <v>8603.243219161457</v>
+        <v>9188.41558271422</v>
       </c>
       <c r="O19" t="n">
-        <v>95089.67163399936</v>
+        <v>96530.42181226694</v>
       </c>
       <c r="P19" t="n">
-        <v>54695.28055125102</v>
+        <v>60460.15401492001</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.19327533117833</v>
+        <v>13.74408924548272</v>
       </c>
       <c r="R19" t="n">
-        <v>14.67821851956653</v>
+        <v>14.45582138674621</v>
       </c>
       <c r="S19" t="n">
-        <v>49.12654870122692</v>
+        <v>48.00225644494672</v>
       </c>
       <c r="T19" t="n">
-        <v>57.59224287273177</v>
+        <v>55.03715637141796</v>
       </c>
       <c r="U19" t="n">
-        <v>49.61149188961513</v>
+        <v>48.71398858621021</v>
       </c>
       <c r="V19" t="n">
-        <v>58.47187038671453</v>
+        <v>56.19308858530101</v>
       </c>
       <c r="W19" t="n">
-        <v>49.36902029542102</v>
+        <v>48.35812251557846</v>
       </c>
       <c r="X19" t="n">
-        <v>58.03205662972315</v>
+        <v>55.61512247835948</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.820766091346741e-11</v>
+        <v>-5.820766091346741e-11</v>
       </c>
       <c r="Z19" t="n">
-        <v>-5.820766091346741e-11</v>
+        <v>-1.746229827404022e-10</v>
       </c>
     </row>
     <row r="20">
@@ -2010,79 +2010,79 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19840.1796753382</v>
+        <v>19179.55790856506</v>
       </c>
       <c r="C20" t="n">
-        <v>17.80010592668061</v>
+        <v>15.32540440350763</v>
       </c>
       <c r="D20" t="n">
-        <v>9.939726703072068</v>
+        <v>8.954381112631239</v>
       </c>
       <c r="E20" t="n">
-        <v>46.14212652486975</v>
+        <v>44.05290063623465</v>
       </c>
       <c r="F20" t="n">
-        <v>61.04216222470259</v>
+        <v>56.56578187347365</v>
       </c>
       <c r="G20" t="n">
-        <v>1620.674247115495</v>
+        <v>1803.489360186472</v>
       </c>
       <c r="H20" t="n">
-        <v>38974.45926823906</v>
+        <v>38447.27165329985</v>
       </c>
       <c r="I20" t="n">
-        <v>103.8356230246288</v>
+        <v>110.9431002011159</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2760519005232047</v>
+        <v>0.2949474637734891</v>
       </c>
       <c r="K20" t="n">
-        <v>55367.7659696335</v>
+        <v>61154.37191590241</v>
       </c>
       <c r="L20" t="n">
-        <v>18621.69573402165</v>
+        <v>27070.40272739105</v>
       </c>
       <c r="M20" t="n">
-        <v>8603.243219161457</v>
+        <v>9188.41558271422</v>
       </c>
       <c r="N20" t="n">
-        <v>2893.506262125064</v>
+        <v>4067.315262312903</v>
       </c>
       <c r="O20" t="n">
-        <v>54695.28055125102</v>
+        <v>60460.15401492001</v>
       </c>
       <c r="P20" t="n">
-        <v>18395.52047433078</v>
+        <v>26763.10240573946</v>
       </c>
       <c r="Q20" t="n">
-        <v>11.45011634786202</v>
+        <v>10.9842557351833</v>
       </c>
       <c r="R20" t="n">
-        <v>12.32974386184478</v>
+        <v>12.14018794906636</v>
       </c>
       <c r="S20" t="n">
-        <v>57.59224287273177</v>
+        <v>55.03715637141796</v>
       </c>
       <c r="T20" t="n">
-        <v>68.45977037954749</v>
+        <v>63.15986449205571</v>
       </c>
       <c r="U20" t="n">
-        <v>58.47187038671453</v>
+        <v>56.19308858530101</v>
       </c>
       <c r="V20" t="n">
-        <v>71.3389280285225</v>
+        <v>65.86634545120592</v>
       </c>
       <c r="W20" t="n">
-        <v>58.03205662972315</v>
+        <v>55.61512247835948</v>
       </c>
       <c r="X20" t="n">
-        <v>69.89934920403499</v>
+        <v>64.51310497163081</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.164153218269348e-10</v>
+        <v>5.820766091346741e-11</v>
       </c>
     </row>
     <row r="21">
@@ -2090,79 +2090,79 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>10045.72056946628</v>
+        <v>11929.2376307576</v>
       </c>
       <c r="C21" t="n">
-        <v>24.28436213742816</v>
+        <v>19.32483651285239</v>
       </c>
       <c r="D21" t="n">
-        <v>9.939726703072068</v>
+        <v>8.954381112631211</v>
       </c>
       <c r="E21" t="n">
-        <v>61.04216222470259</v>
+        <v>56.56578187347365</v>
       </c>
       <c r="F21" t="n">
-        <v>83.95181749179723</v>
+        <v>73.96222991219801</v>
       </c>
       <c r="G21" t="n">
-        <v>514.3747927753163</v>
+        <v>916.5246781419085</v>
       </c>
       <c r="H21" t="n">
-        <v>16948.91230046818</v>
+        <v>22819.67166871862</v>
       </c>
       <c r="I21" t="n">
-        <v>103.8356230246288</v>
+        <v>110.9431002011159</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2760519005232047</v>
+        <v>0.2949474637734891</v>
       </c>
       <c r="K21" t="n">
-        <v>18621.69573402165</v>
+        <v>27070.40272739105</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>2893.506262125064</v>
+        <v>4067.315262312903</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>18395.52047433078</v>
+        <v>26763.10240573946</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.417608154844906</v>
+        <v>6.594082618582056</v>
       </c>
       <c r="R21" t="n">
-        <v>10.29676580381991</v>
+        <v>9.300563577732262</v>
       </c>
       <c r="S21" t="n">
-        <v>68.45977037954749</v>
+        <v>63.15986449205571</v>
       </c>
       <c r="T21" t="n">
-        <v>83.95181749179723</v>
+        <v>73.96222991219801</v>
       </c>
       <c r="U21" t="n">
-        <v>71.3389280285225</v>
+        <v>65.86634545120592</v>
       </c>
       <c r="V21" t="n">
-        <v>83.95181749179723</v>
+        <v>73.96222991219801</v>
       </c>
       <c r="W21" t="n">
-        <v>69.89934920403499</v>
+        <v>64.51310497163081</v>
       </c>
       <c r="X21" t="n">
-        <v>83.95181749179723</v>
+        <v>73.96222991219801</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>-64676.91788081999</v>
       </c>
     </row>
   </sheetData>

--- a/thrust_calc_results.xlsx
+++ b/thrust_calc_results.xlsx
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17940.93332486915</v>
+        <v>18008.714471985</v>
       </c>
       <c r="C2" t="n">
         <v>14.10583813984129</v>
@@ -591,28 +591,28 @@
         <v>6976.910679550587</v>
       </c>
       <c r="I2" t="n">
-        <v>221.8862004022318</v>
+        <v>221.4820412156466</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2826416649913952</v>
+        <v>0.2821268415133649</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21965.47734625929</v>
+        <v>22022.39209131683</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3300.302627711924</v>
+        <v>3345.523650084648</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>21716.1275925186</v>
+        <v>21766.7917923248</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -624,22 +624,22 @@
         <v>39.99961494556892</v>
       </c>
       <c r="T2" t="n">
-        <v>35.7647059822678</v>
+        <v>35.77334537650596</v>
       </c>
       <c r="U2" t="n">
         <v>39.99961494556892</v>
       </c>
       <c r="V2" t="n">
-        <v>38.77496892731731</v>
+        <v>37.676660454784</v>
       </c>
       <c r="W2" t="n">
         <v>39.99961494556892</v>
       </c>
       <c r="X2" t="n">
-        <v>37.26983745479255</v>
+        <v>36.72500291564498</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.91038304567337e-11</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27064.77401873633</v>
+        <v>27150.17507658519</v>
       </c>
       <c r="C3" t="n">
         <v>12.77628929067389</v>
@@ -671,58 +671,58 @@
         <v>18718.16443016667</v>
       </c>
       <c r="I3" t="n">
-        <v>221.8862004022318</v>
+        <v>221.4820412156466</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2826416649913952</v>
+        <v>0.2821268415133649</v>
       </c>
       <c r="K3" t="n">
-        <v>21965.47734625929</v>
+        <v>22022.39209131683</v>
       </c>
       <c r="L3" t="n">
-        <v>54333.58223350879</v>
+        <v>54456.37255506011</v>
       </c>
       <c r="M3" t="n">
-        <v>3300.302627711924</v>
+        <v>3345.523650084648</v>
       </c>
       <c r="N3" t="n">
-        <v>8163.595144850729</v>
+        <v>8272.719944560771</v>
       </c>
       <c r="O3" t="n">
-        <v>21716.1275925186</v>
+        <v>21766.7917923248</v>
       </c>
       <c r="P3" t="n">
-        <v>53716.79320879487</v>
+        <v>53824.33108338988</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.724023089084739</v>
+        <v>5.732662483322898</v>
       </c>
       <c r="R3" t="n">
-        <v>8.73428603413425</v>
+        <v>7.635977561600936</v>
       </c>
       <c r="S3" t="n">
-        <v>35.7647059822678</v>
+        <v>35.77334537650596</v>
       </c>
       <c r="T3" t="n">
-        <v>31.05372716166102</v>
+        <v>31.0707520793303</v>
       </c>
       <c r="U3" t="n">
-        <v>38.77496892731731</v>
+        <v>37.676660454784</v>
       </c>
       <c r="V3" t="n">
-        <v>32.28160956063765</v>
+        <v>31.85137964164564</v>
       </c>
       <c r="W3" t="n">
-        <v>37.26983745479255</v>
+        <v>36.72500291564498</v>
       </c>
       <c r="X3" t="n">
-        <v>31.66766836114934</v>
+        <v>31.46106586048797</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.731149137020111e-11</v>
+        <v>2.91038304567337e-11</v>
       </c>
       <c r="Z3" t="n">
-        <v>-2.91038304567337e-11</v>
+        <v>2.91038304567337e-11</v>
       </c>
     </row>
     <row r="4">
@@ -730,7 +730,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31114.169914178</v>
+        <v>31194.5772606411</v>
       </c>
       <c r="C4" t="n">
         <v>11.87808673064982</v>
@@ -751,55 +751,55 @@
         <v>28137.86010431374</v>
       </c>
       <c r="I4" t="n">
-        <v>221.8862004022318</v>
+        <v>221.4820412156466</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2826416649913952</v>
+        <v>0.2821268415133649</v>
       </c>
       <c r="K4" t="n">
-        <v>54333.58223350879</v>
+        <v>54456.37255506011</v>
       </c>
       <c r="L4" t="n">
-        <v>89528.90069863791</v>
+        <v>89705.9934765106</v>
       </c>
       <c r="M4" t="n">
-        <v>8163.595144850729</v>
+        <v>8272.719944560771</v>
       </c>
       <c r="N4" t="n">
-        <v>13451.67517072847</v>
+        <v>13627.65323065593</v>
       </c>
       <c r="O4" t="n">
-        <v>53716.79320879487</v>
+        <v>53824.33108338988</v>
       </c>
       <c r="P4" t="n">
-        <v>88512.57817625569</v>
+        <v>88664.83143294614</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.953398095811394</v>
+        <v>8.970423013480678</v>
       </c>
       <c r="R4" t="n">
-        <v>10.18128049478804</v>
+        <v>9.751050575796016</v>
       </c>
       <c r="S4" t="n">
-        <v>31.05372716166102</v>
+        <v>31.0707520793303</v>
       </c>
       <c r="T4" t="n">
-        <v>27.50095086006838</v>
+        <v>27.52737445734559</v>
       </c>
       <c r="U4" t="n">
-        <v>32.28160956063765</v>
+        <v>31.85137964164564</v>
       </c>
       <c r="V4" t="n">
-        <v>28.25045601950946</v>
+        <v>28.00557958814334</v>
       </c>
       <c r="W4" t="n">
-        <v>31.66766836114934</v>
+        <v>31.46106586048797</v>
       </c>
       <c r="X4" t="n">
-        <v>27.87570343978892</v>
+        <v>27.76647702274447</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.820766091346741e-11</v>
+        <v>-2.328306436538696e-10</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32902.31392051722</v>
+        <v>32972.38125036244</v>
       </c>
       <c r="C5" t="n">
         <v>11.24349820547246</v>
@@ -831,55 +831,55 @@
         <v>35700.23289621456</v>
       </c>
       <c r="I5" t="n">
-        <v>221.8862004022318</v>
+        <v>221.4820412156466</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2826416649913952</v>
+        <v>0.2821268415133649</v>
       </c>
       <c r="K5" t="n">
-        <v>89528.90069863791</v>
+        <v>89705.9934765106</v>
       </c>
       <c r="L5" t="n">
-        <v>123913.8582092831</v>
+        <v>124130.3700977534</v>
       </c>
       <c r="M5" t="n">
-        <v>13451.67517072847</v>
+        <v>13627.65323065593</v>
       </c>
       <c r="N5" t="n">
-        <v>18617.99884479471</v>
+        <v>18857.21983033509</v>
       </c>
       <c r="O5" t="n">
-        <v>88512.57817625569</v>
+        <v>88664.83143294614</v>
       </c>
       <c r="P5" t="n">
-        <v>122507.2013202715</v>
+        <v>122689.6655830297</v>
       </c>
       <c r="Q5" t="n">
-        <v>11.78451674140695</v>
+        <v>11.81094033868416</v>
       </c>
       <c r="R5" t="n">
-        <v>12.53402190084803</v>
+        <v>12.28914546948192</v>
       </c>
       <c r="S5" t="n">
-        <v>27.50095086006838</v>
+        <v>27.52737445734559</v>
       </c>
       <c r="T5" t="n">
-        <v>24.8342305732847</v>
+        <v>24.87072244259192</v>
       </c>
       <c r="U5" t="n">
-        <v>28.25045601950946</v>
+        <v>28.00557958814334</v>
       </c>
       <c r="V5" t="n">
-        <v>25.37771145275556</v>
+        <v>25.21826498104953</v>
       </c>
       <c r="W5" t="n">
-        <v>27.87570343978892</v>
+        <v>27.76647702274447</v>
       </c>
       <c r="X5" t="n">
-        <v>25.10597101302013</v>
+        <v>25.04449371182072</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.164153218269348e-10</v>
+        <v>5.820766091346741e-11</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -890,7 +890,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>33475.97886086193</v>
+        <v>33534.71442223676</v>
       </c>
       <c r="C6" t="n">
         <v>10.78695667671407</v>
@@ -911,58 +911,58 @@
         <v>41691.15558417432</v>
       </c>
       <c r="I6" t="n">
-        <v>221.8862004022318</v>
+        <v>221.4820412156466</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2826416649913952</v>
+        <v>0.2821268415133649</v>
       </c>
       <c r="K6" t="n">
-        <v>123913.8582092831</v>
+        <v>124130.3700977534</v>
       </c>
       <c r="L6" t="n">
-        <v>155492.8776850787</v>
+        <v>155734.7535123259</v>
       </c>
       <c r="M6" t="n">
-        <v>18617.99884479471</v>
+        <v>18857.21983033509</v>
       </c>
       <c r="N6" t="n">
-        <v>23362.73165044362</v>
+        <v>23658.38819212647</v>
       </c>
       <c r="O6" t="n">
-        <v>122507.2013202715</v>
+        <v>122689.6655830297</v>
       </c>
       <c r="P6" t="n">
-        <v>153727.7391384399</v>
+        <v>153927.2364453268</v>
       </c>
       <c r="Q6" t="n">
-        <v>14.21808845945781</v>
+        <v>14.25458032876502</v>
       </c>
       <c r="R6" t="n">
-        <v>14.76156933892866</v>
+        <v>14.60212286722263</v>
       </c>
       <c r="S6" t="n">
-        <v>24.8342305732847</v>
+        <v>24.87072244259192</v>
       </c>
       <c r="T6" t="n">
-        <v>22.90970215929503</v>
+        <v>22.95690399864847</v>
       </c>
       <c r="U6" t="n">
-        <v>25.37771145275556</v>
+        <v>25.21826498104953</v>
       </c>
       <c r="V6" t="n">
-        <v>23.34375634007426</v>
+        <v>23.23486522719179</v>
       </c>
       <c r="W6" t="n">
-        <v>25.10597101302013</v>
+        <v>25.04449371182072</v>
       </c>
       <c r="X6" t="n">
-        <v>23.12672924968464</v>
+        <v>23.09588461292013</v>
       </c>
       <c r="Y6" t="n">
-        <v>-4.656612873077393e-10</v>
+        <v>2.328306436538696e-10</v>
       </c>
       <c r="Z6" t="n">
-        <v>-1.164153218269348e-10</v>
+        <v>-5.820766091346741e-11</v>
       </c>
     </row>
     <row r="7">
@@ -970,7 +970,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>33305.17811148349</v>
+        <v>33352.89604218024</v>
       </c>
       <c r="C7" t="n">
         <v>10.46045467471967</v>
@@ -991,58 +991,58 @@
         <v>46296.37332020365</v>
       </c>
       <c r="I7" t="n">
-        <v>221.8862004022318</v>
+        <v>221.4820412156466</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2826416649913952</v>
+        <v>0.2821268415133649</v>
       </c>
       <c r="K7" t="n">
-        <v>155492.8776850787</v>
+        <v>155734.7535123259</v>
       </c>
       <c r="L7" t="n">
-        <v>183104.321383244</v>
+        <v>183359.4406566499</v>
       </c>
       <c r="M7" t="n">
-        <v>23362.73165044362</v>
+        <v>23658.38819212647</v>
       </c>
       <c r="N7" t="n">
-        <v>27511.33806383866</v>
+        <v>27854.98244874972</v>
       </c>
       <c r="O7" t="n">
-        <v>153727.7391384399</v>
+        <v>153927.2364453268</v>
       </c>
       <c r="P7" t="n">
-        <v>181025.7406756163</v>
+        <v>181231.3009132235</v>
       </c>
       <c r="Q7" t="n">
-        <v>16.28361595087241</v>
+        <v>16.33081779022585</v>
       </c>
       <c r="R7" t="n">
-        <v>16.71767013165164</v>
+        <v>16.60877901876917</v>
       </c>
       <c r="S7" t="n">
-        <v>22.90970215929503</v>
+        <v>22.95690399864847</v>
       </c>
       <c r="T7" t="n">
-        <v>21.63670789852929</v>
+        <v>21.69532692852706</v>
       </c>
       <c r="U7" t="n">
-        <v>23.34375634007426</v>
+        <v>23.23486522719179</v>
       </c>
       <c r="V7" t="n">
-        <v>22.00577568918837</v>
+        <v>21.93187781466925</v>
       </c>
       <c r="W7" t="n">
-        <v>23.12672924968464</v>
+        <v>23.09588461292013</v>
       </c>
       <c r="X7" t="n">
-        <v>21.82124179385883</v>
+        <v>21.81360237159815</v>
       </c>
       <c r="Y7" t="n">
         <v>3.492459654808044e-10</v>
       </c>
       <c r="Z7" t="n">
-        <v>-4.656612873077393e-10</v>
+        <v>-1.164153218269348e-10</v>
       </c>
     </row>
     <row r="8">
@@ -1050,7 +1050,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>35127.37110508158</v>
+        <v>35169.42750972484</v>
       </c>
       <c r="C8" t="n">
         <v>10.07659006958534</v>
@@ -1071,58 +1071,58 @@
         <v>53576.08621085047</v>
       </c>
       <c r="I8" t="n">
-        <v>55.47155010055796</v>
+        <v>55.37051030391165</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3466247156074144</v>
+        <v>0.3459933488849401</v>
       </c>
       <c r="K8" t="n">
-        <v>183104.321383244</v>
+        <v>183359.4406566499</v>
       </c>
       <c r="L8" t="n">
-        <v>208291.3322691044</v>
+        <v>208553.0122398305</v>
       </c>
       <c r="M8" t="n">
-        <v>27511.33806383866</v>
+        <v>27854.98244874972</v>
       </c>
       <c r="N8" t="n">
-        <v>31295.67458885253</v>
+        <v>31682.25467295392</v>
       </c>
       <c r="O8" t="n">
-        <v>181025.7406756163</v>
+        <v>181231.3009132235</v>
       </c>
       <c r="P8" t="n">
-        <v>205926.8313029341</v>
+        <v>206132.466276288</v>
       </c>
       <c r="Q8" t="n">
-        <v>18.00470178000857</v>
+        <v>18.06332081000634</v>
       </c>
       <c r="R8" t="n">
-        <v>18.37376957066765</v>
+        <v>18.29987169614853</v>
       </c>
       <c r="S8" t="n">
-        <v>21.63670789852929</v>
+        <v>21.69532692852706</v>
       </c>
       <c r="T8" t="n">
-        <v>20.74442894523895</v>
+        <v>20.81432625740583</v>
       </c>
       <c r="U8" t="n">
-        <v>22.00577568918837</v>
+        <v>21.93187781466925</v>
       </c>
       <c r="V8" t="n">
-        <v>21.06909609436599</v>
+        <v>21.02252893808059</v>
       </c>
       <c r="W8" t="n">
-        <v>21.82124179385883</v>
+        <v>21.81360237159815</v>
       </c>
       <c r="X8" t="n">
-        <v>20.90676251980247</v>
+        <v>20.91842759774321</v>
       </c>
       <c r="Y8" t="n">
-        <v>-5.820766091346741e-11</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.566995918750763e-10</v>
+        <v>-1.164153218269348e-10</v>
       </c>
     </row>
     <row r="9">
@@ -1130,7 +1130,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>39104.16991316389</v>
+        <v>39140.39690032609</v>
       </c>
       <c r="C9" t="n">
         <v>9.939495248171937</v>
@@ -1151,58 +1151,58 @@
         <v>65158.84795942099</v>
       </c>
       <c r="I9" t="n">
-        <v>55.47155010055796</v>
+        <v>55.37051030391165</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3466247156074144</v>
+        <v>0.3459933488849401</v>
       </c>
       <c r="K9" t="n">
-        <v>208291.3322691044</v>
+        <v>208553.0122398305</v>
       </c>
       <c r="L9" t="n">
-        <v>231109.1012351985</v>
+        <v>231367.8690632526</v>
       </c>
       <c r="M9" t="n">
-        <v>31295.67458885253</v>
+        <v>31682.25467295392</v>
       </c>
       <c r="N9" t="n">
-        <v>34724.03363109973</v>
+        <v>35148.1653133402</v>
       </c>
       <c r="O9" t="n">
-        <v>205926.8313029341</v>
+        <v>206132.466276288</v>
       </c>
       <c r="P9" t="n">
-        <v>228485.5753918122</v>
+        <v>228682.525152178</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16041416495309</v>
+        <v>19.23031147711997</v>
       </c>
       <c r="R9" t="n">
-        <v>19.48508131408012</v>
+        <v>19.43851415779472</v>
       </c>
       <c r="S9" t="n">
-        <v>20.74442894523895</v>
+        <v>20.81432625740583</v>
       </c>
       <c r="T9" t="n">
-        <v>20.21875882002425</v>
+        <v>20.30045629232565</v>
       </c>
       <c r="U9" t="n">
-        <v>21.06909609436599</v>
+        <v>21.02252893808059</v>
       </c>
       <c r="V9" t="n">
-        <v>20.51147440047682</v>
+        <v>20.48823160883502</v>
       </c>
       <c r="W9" t="n">
-        <v>20.90676251980247</v>
+        <v>20.91842759774321</v>
       </c>
       <c r="X9" t="n">
-        <v>20.36511661025054</v>
+        <v>20.39434395058034</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.91038304567337e-10</v>
+        <v>-1.164153218269348e-10</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>2.328306436538696e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1210,7 +1210,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>44431.26277690462</v>
+        <v>44460.56847935169</v>
       </c>
       <c r="C10" t="n">
         <v>9.874029601984471</v>
@@ -1231,58 +1231,58 @@
         <v>75659.45807402786</v>
       </c>
       <c r="I10" t="n">
-        <v>55.47155010055796</v>
+        <v>55.37051030391165</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3466247156074144</v>
+        <v>0.3459933488849401</v>
       </c>
       <c r="K10" t="n">
-        <v>231109.1012351985</v>
+        <v>231367.8690632526</v>
       </c>
       <c r="L10" t="n">
-        <v>250322.840335387</v>
+        <v>250568.5817726945</v>
       </c>
       <c r="M10" t="n">
-        <v>34724.03363109973</v>
+        <v>35148.1653133402</v>
       </c>
       <c r="N10" t="n">
-        <v>37610.8888831356</v>
+        <v>38065.03457084682</v>
       </c>
       <c r="O10" t="n">
-        <v>228485.5753918122</v>
+        <v>228682.525152178</v>
       </c>
       <c r="P10" t="n">
-        <v>247481.2021770464</v>
+        <v>247660.3870519057</v>
       </c>
       <c r="Q10" t="n">
-        <v>19.83681301289636</v>
+        <v>19.91851048519775</v>
       </c>
       <c r="R10" t="n">
-        <v>20.12952859334893</v>
+        <v>20.10628580170713</v>
       </c>
       <c r="S10" t="n">
-        <v>20.21875882002425</v>
+        <v>20.30045629232565</v>
       </c>
       <c r="T10" t="n">
-        <v>20.12344825366479</v>
+        <v>20.21788599821732</v>
       </c>
       <c r="U10" t="n">
-        <v>20.51147440047682</v>
+        <v>20.48823160883502</v>
       </c>
       <c r="V10" t="n">
-        <v>20.39372103921006</v>
+        <v>20.39129715355237</v>
       </c>
       <c r="W10" t="n">
-        <v>20.36511661025054</v>
+        <v>20.39434395058034</v>
       </c>
       <c r="X10" t="n">
-        <v>20.25858464643742</v>
+        <v>20.30459157588485</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.91038304567337e-10</v>
+        <v>5.238689482212067e-10</v>
       </c>
       <c r="Z10" t="n">
-        <v>-7.566995918750763e-10</v>
+        <v>-4.656612873077393e-10</v>
       </c>
     </row>
     <row r="11">
@@ -1290,7 +1290,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>62429.37498220086</v>
+        <v>62450.10581976896</v>
       </c>
       <c r="C11" t="n">
         <v>12.3680178772166</v>
@@ -1311,58 +1311,58 @@
         <v>108518.5126056569</v>
       </c>
       <c r="I11" t="n">
-        <v>110.9431002011159</v>
+        <v>110.7410206078233</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2949474637734891</v>
+        <v>0.2944102256449892</v>
       </c>
       <c r="K11" t="n">
-        <v>250322.840335387</v>
+        <v>250568.5817726945</v>
       </c>
       <c r="L11" t="n">
-        <v>264318.4631434614</v>
+        <v>264536.4336061471</v>
       </c>
       <c r="M11" t="n">
-        <v>37610.8888831356</v>
+        <v>38065.03457084682</v>
       </c>
       <c r="N11" t="n">
-        <v>39713.72461949709</v>
+        <v>40186.95567986743</v>
       </c>
       <c r="O11" t="n">
-        <v>247481.2021770464</v>
+        <v>247660.3870519057</v>
       </c>
       <c r="P11" t="n">
-        <v>261317.9481692142</v>
+        <v>261466.1226588329</v>
       </c>
       <c r="Q11" t="n">
-        <v>20.12307325307885</v>
+        <v>20.21751099763139</v>
       </c>
       <c r="R11" t="n">
-        <v>20.39334603862413</v>
+        <v>20.39092215296644</v>
       </c>
       <c r="S11" t="n">
-        <v>20.12344825366479</v>
+        <v>20.21788599821732</v>
       </c>
       <c r="T11" t="n">
-        <v>20.90284740150824</v>
+        <v>21.01610567583192</v>
       </c>
       <c r="U11" t="n">
-        <v>20.39372103921006</v>
+        <v>20.39129715355237</v>
       </c>
       <c r="V11" t="n">
-        <v>21.15876213089059</v>
+        <v>21.18031348651938</v>
       </c>
       <c r="W11" t="n">
-        <v>20.25858464643742</v>
+        <v>20.30459157588485</v>
       </c>
       <c r="X11" t="n">
-        <v>21.03080476619941</v>
+        <v>21.09820958117565</v>
       </c>
       <c r="Y11" t="n">
-        <v>-3.492459654808044e-10</v>
+        <v>3.492459654808044e-10</v>
       </c>
       <c r="Z11" t="n">
-        <v>-8.149072527885437e-10</v>
+        <v>-1.164153218269348e-10</v>
       </c>
     </row>
     <row r="12">
@@ -1370,7 +1370,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>71223.73147550289</v>
+        <v>71229.29717992674</v>
       </c>
       <c r="C12" t="n">
         <v>12.50482896617596</v>
@@ -1391,58 +1391,58 @@
         <v>122436.3747918735</v>
       </c>
       <c r="I12" t="n">
-        <v>110.9431002011159</v>
+        <v>110.7410206078233</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2949474637734891</v>
+        <v>0.2944102256449892</v>
       </c>
       <c r="K12" t="n">
-        <v>264318.4631434614</v>
+        <v>264536.4336061471</v>
       </c>
       <c r="L12" t="n">
-        <v>267505.9118809285</v>
+        <v>267684.6978975533</v>
       </c>
       <c r="M12" t="n">
-        <v>39713.72461949709</v>
+        <v>40186.95567986743</v>
       </c>
       <c r="N12" t="n">
-        <v>40192.63729132897</v>
+        <v>40665.22309968007</v>
       </c>
       <c r="O12" t="n">
-        <v>261317.9481692142</v>
+        <v>261466.1226588329</v>
       </c>
       <c r="P12" t="n">
-        <v>264469.2133289143</v>
+        <v>264577.8469916891</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.23422424766718</v>
+        <v>20.34748252199087</v>
       </c>
       <c r="R12" t="n">
-        <v>20.49013897704953</v>
+        <v>20.51169033267833</v>
       </c>
       <c r="S12" t="n">
-        <v>20.90284740150824</v>
+        <v>21.01610567583192</v>
       </c>
       <c r="T12" t="n">
-        <v>22.53917363198457</v>
+        <v>22.67537946919247</v>
       </c>
       <c r="U12" t="n">
-        <v>21.15876213089059</v>
+        <v>21.18031348651938</v>
       </c>
       <c r="V12" t="n">
-        <v>22.79200642772498</v>
+        <v>22.83762384014575</v>
       </c>
       <c r="W12" t="n">
-        <v>21.03080476619941</v>
+        <v>21.09820958117565</v>
       </c>
       <c r="X12" t="n">
-        <v>22.66559002985477</v>
+        <v>22.75650165466911</v>
       </c>
       <c r="Y12" t="n">
-        <v>-1.164153218269348e-10</v>
+        <v>-3.492459654808044e-10</v>
       </c>
       <c r="Z12" t="n">
-        <v>-2.328306436538696e-10</v>
+        <v>5.820766091346741e-10</v>
       </c>
     </row>
     <row r="13">
@@ -1450,7 +1450,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>82485.17322936191</v>
+        <v>82479.09525471361</v>
       </c>
       <c r="C13" t="n">
         <v>10.327955592437</v>
@@ -1471,58 +1471,58 @@
         <v>102570.1405098137</v>
       </c>
       <c r="I13" t="n">
-        <v>110.9431002011159</v>
+        <v>110.7410206078233</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2949474637734891</v>
+        <v>0.2944102256449892</v>
       </c>
       <c r="K13" t="n">
-        <v>267505.9118809285</v>
+        <v>267684.6978975533</v>
       </c>
       <c r="L13" t="n">
-        <v>261054.5459405742</v>
+        <v>261185.9998827462</v>
       </c>
       <c r="M13" t="n">
-        <v>40192.63729132897</v>
+        <v>40665.22309968007</v>
       </c>
       <c r="N13" t="n">
-        <v>39223.3225967449</v>
+        <v>39677.97576464294</v>
       </c>
       <c r="O13" t="n">
-        <v>264469.2133289143</v>
+        <v>264577.8469916891</v>
       </c>
       <c r="P13" t="n">
-        <v>258091.0826059495</v>
+        <v>258154.5753496736</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.9061195750396</v>
+        <v>20.0423254122475</v>
       </c>
       <c r="R13" t="n">
-        <v>20.15895237078001</v>
+        <v>20.20456978320077</v>
       </c>
       <c r="S13" t="n">
-        <v>22.53917363198457</v>
+        <v>22.67537946919247</v>
       </c>
       <c r="T13" t="n">
-        <v>24.53766658509182</v>
+        <v>24.69798348335944</v>
       </c>
       <c r="U13" t="n">
-        <v>22.79200642772498</v>
+        <v>22.83762384014575</v>
       </c>
       <c r="V13" t="n">
-        <v>24.79681068630537</v>
+        <v>24.86432828911845</v>
       </c>
       <c r="W13" t="n">
-        <v>22.66559002985477</v>
+        <v>22.75650165466911</v>
       </c>
       <c r="X13" t="n">
-        <v>24.6672386356986</v>
+        <v>24.78115588623895</v>
       </c>
       <c r="Y13" t="n">
-        <v>-124999.9999999999</v>
+        <v>-125000.0000000001</v>
       </c>
       <c r="Z13" t="n">
-        <v>125000</v>
+        <v>125000.0000000001</v>
       </c>
     </row>
     <row r="14">
@@ -1530,7 +1530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>77271.7431926564</v>
+        <v>77251.12438471205</v>
       </c>
       <c r="C14" t="n">
         <v>10.60660172297659</v>
@@ -1551,58 +1551,58 @@
         <v>98540.95218659885</v>
       </c>
       <c r="I14" t="n">
-        <v>110.9431002011159</v>
+        <v>110.7410206078233</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2949474637734891</v>
+        <v>0.2944102256449892</v>
       </c>
       <c r="K14" t="n">
-        <v>261054.5459405742</v>
+        <v>261185.9998827462</v>
       </c>
       <c r="L14" t="n">
-        <v>243529.9412441136</v>
+        <v>243616.402954985</v>
       </c>
       <c r="M14" t="n">
-        <v>39223.3225967449</v>
+        <v>39677.97576464294</v>
       </c>
       <c r="N14" t="n">
-        <v>36590.2589934542</v>
+        <v>37008.89686528687</v>
       </c>
       <c r="O14" t="n">
-        <v>258091.0826059495</v>
+        <v>258154.5753496736</v>
       </c>
       <c r="P14" t="n">
-        <v>240765.4153510286</v>
+        <v>240788.8978784948</v>
       </c>
       <c r="Q14" t="n">
-        <v>19.32006941758179</v>
+        <v>19.48038631584941</v>
       </c>
       <c r="R14" t="n">
-        <v>19.57921351879533</v>
+        <v>19.64673112160841</v>
       </c>
       <c r="S14" t="n">
-        <v>24.53766658509182</v>
+        <v>24.69798348335944</v>
       </c>
       <c r="T14" t="n">
-        <v>27.37489233129777</v>
+        <v>27.56754442980683</v>
       </c>
       <c r="U14" t="n">
-        <v>24.79681068630537</v>
+        <v>24.86432828911845</v>
       </c>
       <c r="V14" t="n">
-        <v>27.65296468725347</v>
+        <v>27.74616667286452</v>
       </c>
       <c r="W14" t="n">
-        <v>24.6672386356986</v>
+        <v>24.78115588623895</v>
       </c>
       <c r="X14" t="n">
-        <v>27.51392850927562</v>
+        <v>27.65685555133568</v>
       </c>
       <c r="Y14" t="n">
-        <v>-124999.9999999998</v>
+        <v>-125000.0000000002</v>
       </c>
       <c r="Z14" t="n">
-        <v>124999.9999999996</v>
+        <v>125000.0000000001</v>
       </c>
     </row>
     <row r="15">
@@ -1610,7 +1610,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>72327.10441174961</v>
+        <v>72293.02034759818</v>
       </c>
       <c r="C15" t="n">
         <v>11.00038197404725</v>
@@ -1631,58 +1631,58 @@
         <v>93194.99991319144</v>
       </c>
       <c r="I15" t="n">
-        <v>110.9431002011159</v>
+        <v>110.7410206078233</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2949474637734891</v>
+        <v>0.2944102256449892</v>
       </c>
       <c r="K15" t="n">
-        <v>243529.9412441136</v>
+        <v>243616.402954985</v>
       </c>
       <c r="L15" t="n">
-        <v>215761.7221821133</v>
+        <v>215808.3908899566</v>
       </c>
       <c r="M15" t="n">
-        <v>36590.2589934542</v>
+        <v>37008.89686528687</v>
       </c>
       <c r="N15" t="n">
-        <v>32418.09715546863</v>
+        <v>32784.45287030083</v>
       </c>
       <c r="O15" t="n">
-        <v>240765.4153510286</v>
+        <v>240788.8978784948</v>
       </c>
       <c r="P15" t="n">
-        <v>213312.4181472097</v>
+        <v>213303.6362289854</v>
       </c>
       <c r="Q15" t="n">
-        <v>18.6178696377327</v>
+        <v>18.81052173624177</v>
       </c>
       <c r="R15" t="n">
-        <v>18.89594199368841</v>
+        <v>18.98914397929946</v>
       </c>
       <c r="S15" t="n">
-        <v>27.37489233129777</v>
+        <v>27.56754442980683</v>
       </c>
       <c r="T15" t="n">
-        <v>31.09283096951257</v>
+        <v>31.33132981015312</v>
       </c>
       <c r="U15" t="n">
-        <v>27.65296468725347</v>
+        <v>27.74616667286452</v>
       </c>
       <c r="V15" t="n">
-        <v>31.40744240077871</v>
+        <v>31.53372092323064</v>
       </c>
       <c r="W15" t="n">
-        <v>27.51392850927562</v>
+        <v>27.65685555133568</v>
       </c>
       <c r="X15" t="n">
-        <v>31.25013668514564</v>
+        <v>31.43252536669188</v>
       </c>
       <c r="Y15" t="n">
-        <v>-124999.9999999997</v>
+        <v>-124999.9999999999</v>
       </c>
       <c r="Z15" t="n">
-        <v>124999.9999999998</v>
+        <v>124999.9999999995</v>
       </c>
     </row>
     <row r="16">
@@ -1690,7 +1690,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>67262.00195034371</v>
+        <v>67215.23743014841</v>
       </c>
       <c r="C16" t="n">
         <v>11.54700540161127</v>
@@ -1711,58 +1711,58 @@
         <v>86378.42395945509</v>
       </c>
       <c r="I16" t="n">
-        <v>110.9431002011159</v>
+        <v>110.7410206078233</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2949474637734891</v>
+        <v>0.2944102256449892</v>
       </c>
       <c r="K16" t="n">
-        <v>215761.7221821133</v>
+        <v>215808.3908899566</v>
       </c>
       <c r="L16" t="n">
-        <v>178642.9802677165</v>
+        <v>178657.9787119403</v>
       </c>
       <c r="M16" t="n">
-        <v>32418.09715546863</v>
+        <v>32784.45287030083</v>
       </c>
       <c r="N16" t="n">
-        <v>26841.02366208029</v>
+        <v>27140.76157479659</v>
       </c>
       <c r="O16" t="n">
-        <v>213312.4181472097</v>
+        <v>213303.6362289854</v>
       </c>
       <c r="P16" t="n">
-        <v>176615.0442281273</v>
+        <v>176584.4059326196</v>
       </c>
       <c r="Q16" t="n">
-        <v>17.74647600802028</v>
+        <v>17.98497484866082</v>
       </c>
       <c r="R16" t="n">
-        <v>18.06108743928641</v>
+        <v>18.18736596173835</v>
       </c>
       <c r="S16" t="n">
-        <v>31.09283096951257</v>
+        <v>31.33132981015312</v>
       </c>
       <c r="T16" t="n">
-        <v>35.85618792963298</v>
+        <v>36.16580566367512</v>
       </c>
       <c r="U16" t="n">
-        <v>31.40744240077871</v>
+        <v>31.53372092323064</v>
       </c>
       <c r="V16" t="n">
-        <v>36.23802686629523</v>
+        <v>36.41214072918478</v>
       </c>
       <c r="W16" t="n">
-        <v>31.25013668514564</v>
+        <v>31.43252536669188</v>
       </c>
       <c r="X16" t="n">
-        <v>36.0471073979641</v>
+        <v>36.28897319642995</v>
       </c>
       <c r="Y16" t="n">
-        <v>-124999.9999999999</v>
+        <v>-124999.9999999997</v>
       </c>
       <c r="Z16" t="n">
-        <v>124999.9999999999</v>
+        <v>124999.9999999992</v>
       </c>
     </row>
     <row r="17">
@@ -1770,7 +1770,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>62546.36787304549</v>
+        <v>62488.16678167045</v>
       </c>
       <c r="C17" t="n">
         <v>12.31174025844619</v>
@@ -1791,58 +1791,58 @@
         <v>77857.68535147833</v>
       </c>
       <c r="I17" t="n">
-        <v>110.9431002011159</v>
+        <v>110.7410206078233</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2949474637734891</v>
+        <v>0.2944102256449892</v>
       </c>
       <c r="K17" t="n">
-        <v>178642.9802677165</v>
+        <v>178657.9787119403</v>
       </c>
       <c r="L17" t="n">
-        <v>133522.9455976264</v>
+        <v>133516.9370233992</v>
       </c>
       <c r="M17" t="n">
-        <v>26841.02366208029</v>
+        <v>27140.76157479659</v>
       </c>
       <c r="N17" t="n">
-        <v>20061.75969996518</v>
+        <v>20283.17671606468</v>
       </c>
       <c r="O17" t="n">
-        <v>176615.0442281273</v>
+        <v>176584.4059326196</v>
       </c>
       <c r="P17" t="n">
-        <v>132007.2073744746</v>
+        <v>131967.2884256369</v>
       </c>
       <c r="Q17" t="n">
-        <v>16.72739293879306</v>
+        <v>17.03701067283519</v>
       </c>
       <c r="R17" t="n">
-        <v>17.10923187545531</v>
+        <v>17.28334573834486</v>
       </c>
       <c r="S17" t="n">
-        <v>35.85618792963298</v>
+        <v>36.16580566367512</v>
       </c>
       <c r="T17" t="n">
-        <v>42.0669216735144</v>
+        <v>42.50376588257551</v>
       </c>
       <c r="U17" t="n">
-        <v>36.23802686629523</v>
+        <v>36.41214072918478</v>
       </c>
       <c r="V17" t="n">
-        <v>42.58265299750171</v>
+        <v>42.83824889268126</v>
       </c>
       <c r="W17" t="n">
-        <v>36.0471073979641</v>
+        <v>36.28897319642995</v>
       </c>
       <c r="X17" t="n">
-        <v>42.32478733550806</v>
+        <v>42.67100738762839</v>
       </c>
       <c r="Y17" t="n">
-        <v>-125000.0000000001</v>
+        <v>-125000</v>
       </c>
       <c r="Z17" t="n">
-        <v>124999.9999999998</v>
+        <v>124999.9999999994</v>
       </c>
     </row>
     <row r="18">
@@ -1850,79 +1850,79 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>29762.86794659715</v>
+        <v>32464.75548664536</v>
       </c>
       <c r="C18" t="n">
-        <v>11.95144528831471</v>
+        <v>13.22550038612207</v>
       </c>
       <c r="D18" t="n">
-        <v>8.954381112631211</v>
+        <v>9.864385081912133</v>
       </c>
       <c r="E18" t="n">
         <v>26.32503002402403</v>
       </c>
       <c r="F18" t="n">
-        <v>34.258167199464</v>
+        <v>35.15875917533425</v>
       </c>
       <c r="G18" t="n">
-        <v>2947.999793917025</v>
+        <v>2925.075015892003</v>
       </c>
       <c r="H18" t="n">
-        <v>60780.57442705733</v>
+        <v>66431.09432518722</v>
       </c>
       <c r="I18" t="n">
-        <v>110.9431002011159</v>
+        <v>110.7410206078233</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2949474637734891</v>
+        <v>0.2944102256449892</v>
       </c>
       <c r="K18" t="n">
-        <v>133522.9455976264</v>
+        <v>133516.9370233992</v>
       </c>
       <c r="L18" t="n">
-        <v>97638.80712658356</v>
+        <v>93884.89778706539</v>
       </c>
       <c r="M18" t="n">
-        <v>20061.75969996518</v>
+        <v>20283.17671606468</v>
       </c>
       <c r="N18" t="n">
-        <v>14670.18479256489</v>
+        <v>14262.48995249933</v>
       </c>
       <c r="O18" t="n">
-        <v>132007.2073744746</v>
+        <v>131967.2884256369</v>
       </c>
       <c r="P18" t="n">
-        <v>96530.42181226694</v>
+        <v>92795.2337830051</v>
       </c>
       <c r="Q18" t="n">
-        <v>15.74189164949037</v>
+        <v>16.17873585855148</v>
       </c>
       <c r="R18" t="n">
-        <v>16.25762297347768</v>
+        <v>16.51321886865723</v>
       </c>
       <c r="S18" t="n">
-        <v>42.0669216735144</v>
+        <v>42.50376588257551</v>
       </c>
       <c r="T18" t="n">
-        <v>48.00225644494672</v>
+        <v>49.29989641611132</v>
       </c>
       <c r="U18" t="n">
-        <v>42.58265299750171</v>
+        <v>42.83824889268126</v>
       </c>
       <c r="V18" t="n">
-        <v>48.71398858621021</v>
+        <v>49.78579271474576</v>
       </c>
       <c r="W18" t="n">
-        <v>42.32478733550806</v>
+        <v>42.67100738762839</v>
       </c>
       <c r="X18" t="n">
-        <v>48.35812251557846</v>
+        <v>49.54284456542854</v>
       </c>
       <c r="Y18" t="n">
+        <v>-5.820766091346741e-11</v>
+      </c>
+      <c r="Z18" t="n">
         <v>1.164153218269348e-10</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>-1.164153218269348e-10</v>
       </c>
     </row>
     <row r="19">
@@ -1930,79 +1930,79 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>24552.83512015656</v>
+        <v>26055.00366621115</v>
       </c>
       <c r="C19" t="n">
-        <v>13.24672720197736</v>
+        <v>14.87044587012606</v>
       </c>
       <c r="D19" t="n">
-        <v>8.954381112631239</v>
+        <v>9.864385081912161</v>
       </c>
       <c r="E19" t="n">
-        <v>34.258167199464</v>
+        <v>35.15875917533425</v>
       </c>
       <c r="F19" t="n">
-        <v>44.05290063623465</v>
+        <v>46.33548952684643</v>
       </c>
       <c r="G19" t="n">
-        <v>2444.728282236571</v>
+        <v>2357.178720517366</v>
       </c>
       <c r="H19" t="n">
-        <v>50389.47278541525</v>
+        <v>53586.42280987477</v>
       </c>
       <c r="I19" t="n">
-        <v>110.9431002011159</v>
+        <v>110.7410206078233</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2949474637734891</v>
+        <v>0.2944102256449892</v>
       </c>
       <c r="K19" t="n">
-        <v>97638.80712658356</v>
+        <v>93884.89778706539</v>
       </c>
       <c r="L19" t="n">
-        <v>61154.37191590241</v>
+        <v>53874.52870633504</v>
       </c>
       <c r="M19" t="n">
-        <v>14670.18479256489</v>
+        <v>14262.48995249933</v>
       </c>
       <c r="N19" t="n">
-        <v>9188.41558271422</v>
+        <v>8184.329348821016</v>
       </c>
       <c r="O19" t="n">
-        <v>96530.42181226694</v>
+        <v>92795.2337830051</v>
       </c>
       <c r="P19" t="n">
-        <v>60460.15401492001</v>
+        <v>53249.24033673856</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.74408924548272</v>
+        <v>14.14113724077706</v>
       </c>
       <c r="R19" t="n">
-        <v>14.45582138674621</v>
+        <v>14.6270335394115</v>
       </c>
       <c r="S19" t="n">
-        <v>48.00225644494672</v>
+        <v>49.29989641611132</v>
       </c>
       <c r="T19" t="n">
-        <v>55.03715637141796</v>
+        <v>57.71257922444926</v>
       </c>
       <c r="U19" t="n">
-        <v>48.71398858621021</v>
+        <v>49.78579271474576</v>
       </c>
       <c r="V19" t="n">
-        <v>56.19308858530101</v>
+        <v>58.59579799652148</v>
       </c>
       <c r="W19" t="n">
-        <v>48.35812251557846</v>
+        <v>49.54284456542854</v>
       </c>
       <c r="X19" t="n">
-        <v>55.61512247835948</v>
+        <v>58.15418861048536</v>
       </c>
       <c r="Y19" t="n">
-        <v>-5.820766091346741e-11</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>-1.746229827404022e-10</v>
+        <v>2.328306436538696e-10</v>
       </c>
     </row>
     <row r="20">
@@ -2010,79 +2010,79 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>19179.55790856506</v>
+        <v>19346.81093581616</v>
       </c>
       <c r="C20" t="n">
-        <v>15.32540440350763</v>
+        <v>17.7096360831204</v>
       </c>
       <c r="D20" t="n">
-        <v>8.954381112631239</v>
+        <v>9.864385081912161</v>
       </c>
       <c r="E20" t="n">
-        <v>44.05290063623465</v>
+        <v>46.33548952684643</v>
       </c>
       <c r="F20" t="n">
-        <v>56.56578187347365</v>
+        <v>61.175924352853</v>
       </c>
       <c r="G20" t="n">
-        <v>1803.489360186472</v>
+        <v>1610.750559666927</v>
       </c>
       <c r="H20" t="n">
-        <v>38447.27165329985</v>
+        <v>38479.9400261671</v>
       </c>
       <c r="I20" t="n">
-        <v>110.9431002011159</v>
+        <v>110.7410206078233</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2949474637734891</v>
+        <v>0.2944102256449892</v>
       </c>
       <c r="K20" t="n">
-        <v>61154.37191590241</v>
+        <v>53874.52870633504</v>
       </c>
       <c r="L20" t="n">
-        <v>27070.40272739105</v>
+        <v>17964.19223622218</v>
       </c>
       <c r="M20" t="n">
-        <v>9188.41558271422</v>
+        <v>8184.329348821016</v>
       </c>
       <c r="N20" t="n">
-        <v>4067.315262312903</v>
+        <v>2729.023701500842</v>
       </c>
       <c r="O20" t="n">
-        <v>60460.15401492001</v>
+        <v>53249.24033673856</v>
       </c>
       <c r="P20" t="n">
-        <v>26763.10240573946</v>
+        <v>17755.69295568584</v>
       </c>
       <c r="Q20" t="n">
-        <v>10.9842557351833</v>
+        <v>11.37708969760283</v>
       </c>
       <c r="R20" t="n">
-        <v>12.14018794906636</v>
+        <v>12.26030846967505</v>
       </c>
       <c r="S20" t="n">
-        <v>55.03715637141796</v>
+        <v>57.71257922444926</v>
       </c>
       <c r="T20" t="n">
-        <v>63.15986449205571</v>
+        <v>68.52149630953292</v>
       </c>
       <c r="U20" t="n">
-        <v>56.19308858530101</v>
+        <v>58.59579799652148</v>
       </c>
       <c r="V20" t="n">
-        <v>65.86634545120592</v>
+        <v>71.43501186492858</v>
       </c>
       <c r="W20" t="n">
-        <v>55.61512247835948</v>
+        <v>58.15418861048536</v>
       </c>
       <c r="X20" t="n">
-        <v>64.51310497163081</v>
+        <v>69.97825408723075</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>5.820766091346741e-11</v>
+        <v>-5.820766091346741e-11</v>
       </c>
     </row>
     <row r="21">
@@ -2090,79 +2090,79 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11929.2376307576</v>
+        <v>9627.640947127742</v>
       </c>
       <c r="C21" t="n">
-        <v>19.32483651285239</v>
+        <v>24.14160699618116</v>
       </c>
       <c r="D21" t="n">
-        <v>8.954381112631211</v>
+        <v>9.864385081912133</v>
       </c>
       <c r="E21" t="n">
-        <v>56.56578187347365</v>
+        <v>61.175924352853</v>
       </c>
       <c r="F21" t="n">
-        <v>73.96222991219801</v>
+        <v>83.95181749179723</v>
       </c>
       <c r="G21" t="n">
-        <v>916.5246781419085</v>
+        <v>509.1608116098621</v>
       </c>
       <c r="H21" t="n">
-        <v>22819.67166871862</v>
+        <v>16712.6465138627</v>
       </c>
       <c r="I21" t="n">
-        <v>110.9431002011159</v>
+        <v>110.7410206078233</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2949474637734891</v>
+        <v>0.2944102256449892</v>
       </c>
       <c r="K21" t="n">
-        <v>27070.40272739105</v>
+        <v>17964.19223622218</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>4067.315262312903</v>
+        <v>2729.023701500842</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>26763.10240573946</v>
+        <v>17755.69295568584</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.594082618582056</v>
+        <v>7.345571956679928</v>
       </c>
       <c r="R21" t="n">
-        <v>9.300563577732262</v>
+        <v>10.25908751207559</v>
       </c>
       <c r="S21" t="n">
-        <v>63.15986449205571</v>
+        <v>68.52149630953292</v>
       </c>
       <c r="T21" t="n">
-        <v>73.96222991219801</v>
+        <v>83.95181749179723</v>
       </c>
       <c r="U21" t="n">
-        <v>65.86634545120592</v>
+        <v>71.43501186492858</v>
       </c>
       <c r="V21" t="n">
-        <v>73.96222991219801</v>
+        <v>83.95181749179723</v>
       </c>
       <c r="W21" t="n">
-        <v>64.51310497163081</v>
+        <v>69.97825408723075</v>
       </c>
       <c r="X21" t="n">
-        <v>73.96222991219801</v>
+        <v>83.95181749179723</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>-64676.91788081999</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/thrust_calc_results.xlsx
+++ b/thrust_calc_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,50 +516,85 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>d_x</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>d_y</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>kw</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>y_cg</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>y_t</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>delta_y_L</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>delta_y_R</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>y_L_abs_left</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>y_L_abs_right</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>y_R_abs_left</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>y_R_abs_right</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>y_ave_left</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>y_ave_right</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>mom_res_L</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>mom_res_R</t>
         </is>
@@ -570,49 +605,49 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7536.788113456523</v>
+        <v>14441.77170615087</v>
       </c>
       <c r="C2" t="n">
-        <v>21.16143236185432</v>
+        <v>14.10583813984129</v>
       </c>
       <c r="D2" t="n">
-        <v>8.339940676379854</v>
+        <v>10.02372911589109</v>
       </c>
       <c r="E2" t="n">
-        <v>83.95181749179717</v>
+        <v>39.99961494556892</v>
       </c>
       <c r="F2" t="n">
-        <v>63.97272945919056</v>
+        <v>30.04068289318306</v>
       </c>
       <c r="G2" t="n">
-        <v>401.2583288838397</v>
+        <v>329.0368204760222</v>
       </c>
       <c r="H2" t="n">
-        <v>12244.05925821413</v>
+        <v>6976.910679550587</v>
       </c>
       <c r="I2" t="n">
-        <v>102.6963048060285</v>
+        <v>149.3043181952119</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2730229693107371</v>
+        <v>0.1901858745996865</v>
       </c>
       <c r="K2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>13221.42373553042</v>
+        <v>17170.05647580344</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-2038.782111103435</v>
+        <v>3169.423750997196</v>
       </c>
       <c r="O2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>13063.28492753227</v>
+        <v>16874.99903611537</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -621,27 +656,48 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>83.95181749179717</v>
+        <v>60.56948986259904</v>
       </c>
       <c r="T2" t="n">
-        <v>73.04626956394434</v>
+        <v>40</v>
       </c>
       <c r="U2" t="n">
-        <v>83.95181749179717</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>69.79896336269259</v>
+        <v>37.36348701541649</v>
       </c>
       <c r="W2" t="n">
-        <v>83.95181749179717</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>71.42261646331846</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
+        <v>39.99961494556892</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>35.94434616584347</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>39.99961494556892</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-221.5774805607894</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>39.99961494556892</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-92.81656719747295</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -650,79 +706,100 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15252.27972129393</v>
+        <v>24220.89623253631</v>
       </c>
       <c r="C3" t="n">
-        <v>15.80678162444799</v>
+        <v>12.77628929067389</v>
       </c>
       <c r="D3" t="n">
-        <v>8.337612477961116</v>
+        <v>10.02372911589107</v>
       </c>
       <c r="E3" t="n">
-        <v>63.97272945919056</v>
+        <v>30.04068289318306</v>
       </c>
       <c r="F3" t="n">
-        <v>50.43654617266478</v>
+        <v>22.10032906584962</v>
       </c>
       <c r="G3" t="n">
-        <v>1392.921324893437</v>
+        <v>882.7639613190732</v>
       </c>
       <c r="H3" t="n">
-        <v>28978.01237993806</v>
+        <v>18718.16443016667</v>
       </c>
       <c r="I3" t="n">
-        <v>51.34815240301425</v>
+        <v>149.3043181952119</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3208588671381289</v>
+        <v>0.1901858745996865</v>
       </c>
       <c r="K3" t="n">
-        <v>13221.42373553042</v>
+        <v>17170.05647580344</v>
       </c>
       <c r="L3" t="n">
-        <v>42222.32272968856</v>
+        <v>44766.51177176975</v>
       </c>
       <c r="M3" t="n">
-        <v>-2038.782111103435</v>
+        <v>3169.423750997196</v>
       </c>
       <c r="N3" t="n">
-        <v>-6510.805340819184</v>
+        <v>8263.458297804082</v>
       </c>
       <c r="O3" t="n">
-        <v>13063.28492753227</v>
+        <v>16874.99903611537</v>
       </c>
       <c r="P3" t="n">
-        <v>41717.30996245966</v>
+        <v>43997.22528947084</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.07354010475377</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>5.826233903502029</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>73.04626956394434</v>
+        <v>70.59321897849011</v>
       </c>
       <c r="T3" t="n">
-        <v>61.27409575343312</v>
+        <v>40</v>
       </c>
       <c r="U3" t="n">
-        <v>69.79896336269259</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>60.33084675096097</v>
+        <v>32.92657082276384</v>
       </c>
       <c r="W3" t="n">
-        <v>71.42261646331846</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>60.80247125219704</v>
+        <v>5.903663272660413</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>-251.6181634539724</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>35.94434616584347</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>31.15429228689211</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-221.5774805607894</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-67.60610299384314</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-92.81656719747295</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-18.22590535347551</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>5.820766091346741e-11</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-5.238689482212067e-10</v>
       </c>
     </row>
     <row r="4">
@@ -730,79 +807,100 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20117.8044998676</v>
+        <v>28902.17832745496</v>
       </c>
       <c r="C4" t="n">
-        <v>13.32603622855653</v>
+        <v>11.87808673064982</v>
       </c>
       <c r="D4" t="n">
-        <v>8.337612477961102</v>
+        <v>10.02372911589109</v>
       </c>
       <c r="E4" t="n">
-        <v>50.43654617266478</v>
+        <v>22.10032906584962</v>
       </c>
       <c r="F4" t="n">
-        <v>39.99961494556892</v>
+        <v>15.71643411866143</v>
       </c>
       <c r="G4" t="n">
-        <v>2094.243263392033</v>
+        <v>1327.004522339517</v>
       </c>
       <c r="H4" t="n">
-        <v>40767.19288460369</v>
+        <v>28137.86010431374</v>
       </c>
       <c r="I4" t="n">
-        <v>51.34815240301425</v>
+        <v>149.3043181952119</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3208588671381289</v>
+        <v>0.1901858745996865</v>
       </c>
       <c r="K4" t="n">
-        <v>42222.32272968856</v>
+        <v>44766.51177176975</v>
       </c>
       <c r="L4" t="n">
-        <v>75619.59055789783</v>
+        <v>75391.63860117129</v>
       </c>
       <c r="M4" t="n">
-        <v>-6510.805340819184</v>
+        <v>8263.458297804082</v>
       </c>
       <c r="N4" t="n">
-        <v>-11660.76147034729</v>
+        <v>13916.55585675458</v>
       </c>
       <c r="O4" t="n">
-        <v>41717.30996245966</v>
+        <v>43997.22528947084</v>
       </c>
       <c r="P4" t="n">
-        <v>74715.11974209621</v>
+        <v>74096.07711650766</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.83754958076835</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>9.894300578296191</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>61.27409575343312</v>
+        <v>80.6169480943812</v>
       </c>
       <c r="T4" t="n">
-        <v>53.1599439810205</v>
+        <v>40</v>
       </c>
       <c r="U4" t="n">
-        <v>60.33084675096097</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>52.65155530189886</v>
+        <v>29.36695094279233</v>
       </c>
       <c r="W4" t="n">
-        <v>60.80247125219704</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>52.90574964145968</v>
+        <v>9.053963221042489</v>
       </c>
       <c r="Y4" t="n">
+        <v>-89.70643205969276</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>31.15429228689211</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>27.6778578014187</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-67.60610299384314</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-30.96023025630296</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-18.22590535347551</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-1.64118622744213</v>
+      </c>
+      <c r="AF4" t="n">
         <v>-5.820766091346741e-11</v>
       </c>
-      <c r="Z4" t="n">
-        <v>0</v>
+      <c r="AG4" t="n">
+        <v>5.820766091346741e-10</v>
       </c>
     </row>
     <row r="5">
@@ -810,78 +908,99 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>32258.85075577837</v>
+        <v>31195.21442186328</v>
       </c>
       <c r="C5" t="n">
-        <v>15.05199908739148</v>
+        <v>11.24349820547246</v>
       </c>
       <c r="D5" t="n">
-        <v>10.74039578255775</v>
+        <v>10.02372911589107</v>
       </c>
       <c r="E5" t="n">
-        <v>39.99961494556892</v>
+        <v>15.71643411866143</v>
       </c>
       <c r="F5" t="n">
-        <v>29.41303341423252</v>
+        <v>10.6161421138269</v>
       </c>
       <c r="G5" t="n">
-        <v>2704.097070652814</v>
+        <v>1683.652215421597</v>
       </c>
       <c r="H5" t="n">
-        <v>66834.00412060897</v>
+        <v>35700.23289621456</v>
       </c>
       <c r="I5" t="n">
-        <v>205.392609612057</v>
+        <v>149.3043181952119</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2616319043385427</v>
+        <v>0.1901858745996865</v>
       </c>
       <c r="K5" t="n">
-        <v>75619.59055789783</v>
+        <v>75391.63860117129</v>
       </c>
       <c r="L5" t="n">
-        <v>119026.9601962804</v>
+        <v>105399.6479777319</v>
       </c>
       <c r="M5" t="n">
-        <v>-11660.76147034729</v>
+        <v>13916.55585675458</v>
       </c>
       <c r="N5" t="n">
-        <v>-18354.30450164462</v>
+        <v>19455.73959632161</v>
       </c>
       <c r="O5" t="n">
-        <v>74715.11974209621</v>
+        <v>74096.07711650766</v>
       </c>
       <c r="P5" t="n">
-        <v>117603.3025039171</v>
+        <v>103588.4162954041</v>
       </c>
       <c r="Q5" t="n">
-        <v>13.16032903545157</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>12.65194035632994</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>53.1599439810205</v>
+        <v>90.64067721027229</v>
       </c>
       <c r="T5" t="n">
-        <v>45.05208467433875</v>
+        <v>40</v>
       </c>
       <c r="U5" t="n">
-        <v>52.65155530189886</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>44.74409685313751</v>
+        <v>26.50919699181412</v>
       </c>
       <c r="W5" t="n">
-        <v>52.90574964145968</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>44.89809076373813</v>
+        <v>11.96142368275727</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>-46.67666437496438</v>
       </c>
       <c r="Z5" t="n">
+        <v>27.6778578014187</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>25.15994420434182</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-30.96023025630296</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-16.78146688229676</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-1.64118622744213</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>4.189238661022531</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1.746229827404022e-10</v>
+      </c>
+      <c r="AG5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -890,79 +1009,100 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>39259.0756560201</v>
+        <v>32166.40206505715</v>
       </c>
       <c r="C6" t="n">
-        <v>13.56873289901021</v>
+        <v>10.78695667671407</v>
       </c>
       <c r="D6" t="n">
-        <v>10.74039578255774</v>
+        <v>10.02372911589109</v>
       </c>
       <c r="E6" t="n">
-        <v>29.41303341423252</v>
+        <v>10.6161421138269</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09993317275918</v>
+        <v>6.62608620842262</v>
       </c>
       <c r="G6" t="n">
-        <v>3233.835658968628</v>
+        <v>1966.189034868296</v>
       </c>
       <c r="H6" t="n">
-        <v>80104.32293020043</v>
+        <v>41691.15558417432</v>
       </c>
       <c r="I6" t="n">
-        <v>205.392609612057</v>
+        <v>149.3043181952119</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2616319043385427</v>
+        <v>0.1901858745996865</v>
       </c>
       <c r="K6" t="n">
-        <v>119026.9601962804</v>
+        <v>105399.6479777319</v>
       </c>
       <c r="L6" t="n">
-        <v>159986.0268285008</v>
+        <v>132771.6769190688</v>
       </c>
       <c r="M6" t="n">
-        <v>-18354.30450164462</v>
+        <v>19455.73959632161</v>
       </c>
       <c r="N6" t="n">
-        <v>-24670.31206691569</v>
+        <v>24508.34724277352</v>
       </c>
       <c r="O6" t="n">
-        <v>117603.3025039171</v>
+        <v>103588.4162954041</v>
       </c>
       <c r="P6" t="n">
-        <v>158072.4659227241</v>
+        <v>130490.0728305767</v>
       </c>
       <c r="Q6" t="n">
-        <v>15.63905126010624</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.331063438905</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>45.05208467433875</v>
+        <v>100.6644063261634</v>
       </c>
       <c r="T6" t="n">
-        <v>38.51968472654322</v>
+        <v>40</v>
       </c>
       <c r="U6" t="n">
-        <v>44.74409685313751</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>38.29599293263254</v>
+        <v>24.24528016932455</v>
       </c>
       <c r="W6" t="n">
-        <v>44.89809076373813</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>38.40783882958787</v>
+        <v>14.54380209051492</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.328306436538696e-10</v>
+        <v>-27.39760899612365</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>25.15994420434182</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>23.43841315472733</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>-16.78146688229676</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-9.85545040638355</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>4.189238661022531</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>6.791481374171891</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1.746229827404022e-10</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-1.164153218269348e-10</v>
       </c>
     </row>
     <row r="7">
@@ -970,78 +1110,99 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>45153.17993789427</v>
+        <v>32312.52107216121</v>
       </c>
       <c r="C7" t="n">
-        <v>12.58846731497852</v>
+        <v>10.46045467471967</v>
       </c>
       <c r="D7" t="n">
-        <v>10.74039578255775</v>
+        <v>10.02372911589109</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09993317275918</v>
+        <v>6.62608620842262</v>
       </c>
       <c r="F7" t="n">
-        <v>14.52139686873703</v>
+        <v>3.632006118520721</v>
       </c>
       <c r="G7" t="n">
-        <v>3637.64756695773</v>
+        <v>2183.374874140138</v>
       </c>
       <c r="H7" t="n">
-        <v>90590.74528566976</v>
+        <v>46296.37332020365</v>
       </c>
       <c r="I7" t="n">
-        <v>205.392609612057</v>
+        <v>149.3043181952119</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2616319043385427</v>
+        <v>0.1901858745996865</v>
       </c>
       <c r="K7" t="n">
-        <v>159986.0268285008</v>
+        <v>132771.6769190688</v>
       </c>
       <c r="L7" t="n">
-        <v>195563.1024240878</v>
+        <v>156331.56315899</v>
       </c>
       <c r="M7" t="n">
-        <v>-24670.31206691569</v>
+        <v>24508.34724277352</v>
       </c>
       <c r="N7" t="n">
-        <v>-30156.40091336377</v>
+        <v>28857.2707961018</v>
       </c>
       <c r="O7" t="n">
-        <v>158072.4659227241</v>
+        <v>130490.0728305767</v>
       </c>
       <c r="P7" t="n">
-        <v>193224.0112245027</v>
+        <v>153645.0961206824</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.41975155378404</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>17.19605975987336</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>38.51968472654322</v>
+        <v>110.6881354420544</v>
       </c>
       <c r="T7" t="n">
-        <v>33.22736487536834</v>
+        <v>40</v>
       </c>
       <c r="U7" t="n">
-        <v>38.29599293263254</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>33.04663341168042</v>
+        <v>22.50500902131299</v>
       </c>
       <c r="W7" t="n">
-        <v>38.40783882958787</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>33.13699914352438</v>
+        <v>16.81232694630471</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>-16.48153661480617</v>
       </c>
       <c r="Z7" t="n">
+        <v>23.43841315472733</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>22.41964682530534</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-9.85545040638355</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-5.85621116346228</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.791481374171891</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>8.281717830921529</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-2.328306436538696e-10</v>
+      </c>
+      <c r="AG7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1050,79 +1211,100 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>51282.10566867119</v>
+        <v>34126.65996285753</v>
       </c>
       <c r="C8" t="n">
-        <v>11.90956052868878</v>
+        <v>10.07659006958534</v>
       </c>
       <c r="D8" t="n">
-        <v>10.74039578255774</v>
+        <v>9.866666666666674</v>
       </c>
       <c r="E8" t="n">
-        <v>14.52139686873703</v>
+        <v>3.632006118520721</v>
       </c>
       <c r="F8" t="n">
-        <v>9.367563456822083</v>
+        <v>1.58401478028587</v>
       </c>
       <c r="G8" t="n">
-        <v>3858.222843426785</v>
+        <v>2589.604130495291</v>
       </c>
       <c r="H8" t="n">
-        <v>98865.16029651969</v>
+        <v>53576.08621085047</v>
       </c>
       <c r="I8" t="n">
-        <v>205.392609612057</v>
+        <v>149.3043181952119</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2616319043385427</v>
+        <v>0.1901858745996865</v>
       </c>
       <c r="K8" t="n">
-        <v>195563.1024240878</v>
+        <v>156331.56315899</v>
       </c>
       <c r="L8" t="n">
-        <v>223605.6965533404</v>
+        <v>176738.797584539</v>
       </c>
       <c r="M8" t="n">
-        <v>-30156.40091336377</v>
+        <v>28857.2707961018</v>
       </c>
       <c r="N8" t="n">
-        <v>-34480.65073723198</v>
+        <v>32624.24579537746</v>
       </c>
       <c r="O8" t="n">
-        <v>193224.0112245027</v>
+        <v>153645.0961206824</v>
       </c>
       <c r="P8" t="n">
-        <v>220931.1934875688</v>
+        <v>173701.6440852287</v>
       </c>
       <c r="Q8" t="n">
-        <v>18.70596800663132</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>18.52523654294339</v>
+        <v>0.6812982252878486</v>
       </c>
       <c r="S8" t="n">
-        <v>33.22736487536834</v>
+        <v>120.6333333333333</v>
       </c>
       <c r="T8" t="n">
-        <v>28.98662936960779</v>
+        <v>44</v>
       </c>
       <c r="U8" t="n">
-        <v>33.04663341168042</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>28.82954338599949</v>
+        <v>23.08422102086657</v>
       </c>
       <c r="W8" t="n">
-        <v>33.13699914352438</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>28.90808637780364</v>
+        <v>18.78764070678462</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.656612873077393e-10</v>
+        <v>-9.488217281983001</v>
       </c>
       <c r="Z8" t="n">
-        <v>-3.492459654808044e-10</v>
+        <v>22.41964682530534</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>21.87812569485043</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-5.85621116346228</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-3.132628579893852</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>8.281717830921529</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>9.372748557478289</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-1.746229827404022e-10</v>
       </c>
     </row>
     <row r="9">
@@ -1130,79 +1312,100 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>56926.14332957321</v>
+        <v>38243.45621483933</v>
       </c>
       <c r="C9" t="n">
-        <v>11.43220855901009</v>
+        <v>9.939495248171937</v>
       </c>
       <c r="D9" t="n">
-        <v>10.74039578255775</v>
+        <v>9.866666666666674</v>
       </c>
       <c r="E9" t="n">
-        <v>9.367563456822083</v>
+        <v>1.58401478028587</v>
       </c>
       <c r="F9" t="n">
-        <v>5.445977332499893</v>
+        <v>0.3819458071278916</v>
       </c>
       <c r="G9" t="n">
-        <v>3996.575848001158</v>
+        <v>3189.933993141789</v>
       </c>
       <c r="H9" t="n">
-        <v>105271.4796986796</v>
+        <v>65158.84795942099</v>
       </c>
       <c r="I9" t="n">
-        <v>205.392609612057</v>
+        <v>149.3043181952119</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2616319043385427</v>
+        <v>0.1901858745996865</v>
       </c>
       <c r="K9" t="n">
-        <v>223605.6965533404</v>
+        <v>176738.797584539</v>
       </c>
       <c r="L9" t="n">
-        <v>242791.7478727763</v>
+        <v>194184.0583396844</v>
       </c>
       <c r="M9" t="n">
-        <v>-34480.65073723198</v>
+        <v>32624.24579537746</v>
       </c>
       <c r="N9" t="n">
-        <v>-37439.19582248328</v>
+        <v>35844.46955280165</v>
       </c>
       <c r="O9" t="n">
-        <v>220931.1934875688</v>
+        <v>173701.6440852287</v>
       </c>
       <c r="P9" t="n">
-        <v>239887.7642800556</v>
+        <v>190847.1181751201</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.61906591278571</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>19.46197992917741</v>
+        <v>0.6812982252878486</v>
       </c>
       <c r="S9" t="n">
-        <v>28.98662936960779</v>
+        <v>130.5</v>
       </c>
       <c r="T9" t="n">
-        <v>25.67111322751989</v>
+        <v>52</v>
       </c>
       <c r="U9" t="n">
-        <v>28.82954338599949</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>25.52683930093634</v>
+        <v>26.01311423102661</v>
       </c>
       <c r="W9" t="n">
-        <v>28.90808637780364</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>25.59897626422811</v>
+        <v>20.29411091456456</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.164153218269348e-10</v>
+        <v>-4.716643360179722</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.328306436538696e-10</v>
+        <v>21.87812569485043</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>21.77077720035247</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-3.132628579893852</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.9929471564485863</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>9.372748557478289</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>10.38891502195194</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-1.746229827404022e-10</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-1.164153218269348e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1210,79 +1413,100 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>62554.53084110557</v>
+        <v>43712.2016859225</v>
       </c>
       <c r="C10" t="n">
-        <v>11.10182627617315</v>
+        <v>9.874029601984471</v>
       </c>
       <c r="D10" t="n">
-        <v>10.74039578255775</v>
+        <v>9.866666666666674</v>
       </c>
       <c r="E10" t="n">
-        <v>5.445977332499893</v>
+        <v>0.3819458071278916</v>
       </c>
       <c r="F10" t="n">
-        <v>2.633054056944971</v>
+        <v>0.000375000585933094</v>
       </c>
       <c r="G10" t="n">
-        <v>4037.551157849542</v>
+        <v>3523.376295930079</v>
       </c>
       <c r="H10" t="n">
-        <v>110027.9843745112</v>
+        <v>75659.45807402786</v>
       </c>
       <c r="I10" t="n">
-        <v>205.392609612057</v>
+        <v>149.3043181952119</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2616319043385427</v>
+        <v>0.1901858745996865</v>
       </c>
       <c r="K10" t="n">
-        <v>242791.7478727763</v>
+        <v>194184.0583396844</v>
       </c>
       <c r="L10" t="n">
-        <v>252038.8530344848</v>
+        <v>207219.49905707</v>
       </c>
       <c r="M10" t="n">
-        <v>-37439.19582248328</v>
+        <v>35844.46955280165</v>
       </c>
       <c r="N10" t="n">
-        <v>-38865.1264151561</v>
+        <v>38250.68385224905</v>
       </c>
       <c r="O10" t="n">
-        <v>239887.7642800556</v>
+        <v>190847.1181751201</v>
       </c>
       <c r="P10" t="n">
-        <v>249024.2666642602</v>
+        <v>203658.5524211992</v>
       </c>
       <c r="Q10" t="n">
-        <v>20.22513589502</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>20.08086196843644</v>
+        <v>0.6812982252878486</v>
       </c>
       <c r="S10" t="n">
-        <v>25.67111322751989</v>
+        <v>140.3666666666667</v>
       </c>
       <c r="T10" t="n">
-        <v>23.23190856498669</v>
+        <v>60</v>
       </c>
       <c r="U10" t="n">
-        <v>25.52683930093634</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>23.09304599103084</v>
+        <v>29.4201788174892</v>
       </c>
       <c r="W10" t="n">
-        <v>25.59897626422811</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>23.16247727800876</v>
+        <v>21.38883139322458</v>
       </c>
       <c r="Y10" t="n">
-        <v>-2.328306436538696e-10</v>
+        <v>-1.374892963576478</v>
       </c>
       <c r="Z10" t="n">
-        <v>5.820766091346741e-10</v>
+        <v>21.77077720035247</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>22.20811791033865</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-0.9929471564485863</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.8763987380975452</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>10.38891502195194</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>11.5422583242181</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>3.492459654808044e-10</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>1.164153218269348e-10</v>
       </c>
     </row>
     <row r="11">
@@ -1290,78 +1514,99 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>71239.69380095985</v>
+        <v>105520.4120749162</v>
       </c>
       <c r="C11" t="n">
-        <v>12.50482896617596</v>
+        <v>12.3680178772166</v>
       </c>
       <c r="D11" t="n">
         <v>12.34999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>2.633054056944971</v>
+        <v>0.000375000585933094</v>
       </c>
       <c r="F11" t="n">
         <v>0.6686231538410539</v>
       </c>
       <c r="G11" t="n">
-        <v>3972.491073373149</v>
+        <v>3823.103391604091</v>
       </c>
       <c r="H11" t="n">
-        <v>122436.3747918735</v>
+        <v>108518.5126056569</v>
       </c>
       <c r="I11" t="n">
-        <v>205.392609612057</v>
+        <v>149.3043181952119</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2616319043385427</v>
+        <v>0.1901858745996865</v>
       </c>
       <c r="K11" t="n">
-        <v>252038.8530344848</v>
+        <v>207219.49905707</v>
       </c>
       <c r="L11" t="n">
-        <v>250039.0758743259</v>
+        <v>251620.5872957603</v>
       </c>
       <c r="M11" t="n">
-        <v>-38865.1264151561</v>
+        <v>38250.68385224905</v>
       </c>
       <c r="N11" t="n">
-        <v>-38556.75494307564</v>
+        <v>46446.6885556781</v>
       </c>
       <c r="O11" t="n">
-        <v>249024.2666642602</v>
+        <v>203658.5524211992</v>
       </c>
       <c r="P11" t="n">
-        <v>247048.4084392096</v>
+        <v>247296.6337685881</v>
       </c>
       <c r="Q11" t="n">
-        <v>20.59885450804171</v>
+        <v>47672.86964301603</v>
       </c>
       <c r="R11" t="n">
-        <v>20.45999193408587</v>
+        <v>0.6806376797732446</v>
       </c>
       <c r="S11" t="n">
-        <v>23.23190856498669</v>
+        <v>151.475</v>
       </c>
       <c r="T11" t="n">
-        <v>21.46935408133261</v>
+        <v>69</v>
       </c>
       <c r="U11" t="n">
-        <v>23.09304599103084</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>21.329359023195</v>
+        <v>33.98037580017571</v>
       </c>
       <c r="W11" t="n">
-        <v>23.16247727800876</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>21.3993565522638</v>
+        <v>22.20774290975271</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.328306436538696e-10</v>
+        <v>0.8760237375116121</v>
       </c>
       <c r="Z11" t="n">
+        <v>22.20811791033865</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>28.7931433187893</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.8763987380975452</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>11.225580323497</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>11.5422583242181</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>20.00936182114315</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-6.984919309616089e-10</v>
+      </c>
+      <c r="AG11" t="n">
         <v>-2.328306436538696e-10</v>
       </c>
     </row>
@@ -1370,10 +1615,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>62392.41815264276</v>
+        <v>113331.2909800294</v>
       </c>
       <c r="C12" t="n">
-        <v>12.3680178772166</v>
+        <v>12.50482896617596</v>
       </c>
       <c r="D12" t="n">
         <v>12.34999999999999</v>
@@ -1382,67 +1627,88 @@
         <v>0.6686231538410539</v>
       </c>
       <c r="F12" t="n">
-        <v>0.000375000585933094</v>
+        <v>2.633054056944971</v>
       </c>
       <c r="G12" t="n">
-        <v>3823.103391604091</v>
+        <v>3972.491073373149</v>
       </c>
       <c r="H12" t="n">
-        <v>108518.5126056569</v>
+        <v>122436.3747918735</v>
       </c>
       <c r="I12" t="n">
-        <v>205.392609612057</v>
+        <v>149.3043181952119</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2616319043385427</v>
+        <v>0.1901858745996865</v>
       </c>
       <c r="K12" t="n">
-        <v>250039.0758743259</v>
+        <v>251620.5872957603</v>
       </c>
       <c r="L12" t="n">
-        <v>236963.9904000868</v>
+        <v>279661.8448987162</v>
       </c>
       <c r="M12" t="n">
-        <v>-38556.75494307564</v>
+        <v>46446.6885556781</v>
       </c>
       <c r="N12" t="n">
-        <v>-36540.53861877842</v>
+        <v>51622.82923872616</v>
       </c>
       <c r="O12" t="n">
-        <v>247048.4084392096</v>
+        <v>247296.6337685881</v>
       </c>
       <c r="P12" t="n">
-        <v>234129.7114502599</v>
+        <v>274856.0186598484</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.80073092749155</v>
+        <v>47672.86964301603</v>
       </c>
       <c r="R12" t="n">
-        <v>20.66073586935394</v>
+        <v>0.6806376797732446</v>
       </c>
       <c r="S12" t="n">
-        <v>21.46935408133261</v>
+        <v>163.825</v>
       </c>
       <c r="T12" t="n">
-        <v>20.65491132358511</v>
+        <v>79</v>
       </c>
       <c r="U12" t="n">
-        <v>21.329359023195</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>20.50714254857023</v>
+        <v>39.80675988444744</v>
       </c>
       <c r="W12" t="n">
-        <v>21.3993565522638</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>20.58102693607767</v>
+        <v>28.12452016494825</v>
       </c>
       <c r="Y12" t="n">
-        <v>-3.492459654808044e-10</v>
+        <v>10.55695716965595</v>
       </c>
       <c r="Z12" t="n">
-        <v>5.820766091346741e-10</v>
+        <v>28.7931433187893</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>36.71738512300759</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>11.225580323497</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>20.91131860034576</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>20.00936182114315</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>28.81435186167668</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>4.656612873077393e-10</v>
       </c>
     </row>
     <row r="13">
@@ -1450,79 +1716,100 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>44039.74457118217</v>
+        <v>62625.89979559837</v>
       </c>
       <c r="C13" t="n">
-        <v>9.874029601984471</v>
+        <v>11.10182627617315</v>
       </c>
       <c r="D13" t="n">
-        <v>9.866666666666674</v>
+        <v>10.74039578255775</v>
       </c>
       <c r="E13" t="n">
-        <v>0.000375000585933094</v>
+        <v>2.633054056944971</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3819458071278916</v>
+        <v>5.445977332499893</v>
       </c>
       <c r="G13" t="n">
-        <v>3523.376295930079</v>
+        <v>4037.551157849542</v>
       </c>
       <c r="H13" t="n">
-        <v>75659.45807402786</v>
+        <v>110027.9843745112</v>
       </c>
       <c r="I13" t="n">
-        <v>205.392609612057</v>
+        <v>149.3043181952119</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2616319043385427</v>
+        <v>0.1901858745996865</v>
       </c>
       <c r="K13" t="n">
-        <v>236963.9904000868</v>
+        <v>279661.8448987162</v>
       </c>
       <c r="L13" t="n">
-        <v>220179.3813272613</v>
+        <v>265348.2590259308</v>
       </c>
       <c r="M13" t="n">
-        <v>-36540.53861877842</v>
+        <v>51622.82923872616</v>
       </c>
       <c r="N13" t="n">
-        <v>-33952.30293372282</v>
+        <v>48980.68189977741</v>
       </c>
       <c r="O13" t="n">
-        <v>234129.7114502599</v>
+        <v>274856.0186598484</v>
       </c>
       <c r="P13" t="n">
-        <v>217545.8597334186</v>
+        <v>260788.4034398871</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.65453632299917</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>20.50676754798429</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>20.65491132358511</v>
+        <v>175.3701978912789</v>
       </c>
       <c r="T13" t="n">
-        <v>20.6163008115693</v>
+        <v>84</v>
       </c>
       <c r="U13" t="n">
-        <v>20.50714254857023</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>20.4572920629132</v>
+        <v>43.60982012961582</v>
       </c>
       <c r="W13" t="n">
-        <v>20.58102693607767</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>20.53679643724125</v>
+        <v>34.08433106606262</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.746229827404022e-10</v>
+        <v>18.27826454340079</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.746229827404022e-10</v>
+        <v>36.71738512300759</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>40.55167303774031</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>20.91131860034576</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>23.89315911756921</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>28.81435186167668</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>32.22241607765476</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>8.149072527885437e-10</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>3.492459654808044e-10</v>
       </c>
     </row>
     <row r="14">
@@ -1530,79 +1817,100 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>38645.89572030754</v>
+        <v>57100.36571956279</v>
       </c>
       <c r="C14" t="n">
-        <v>9.939495248171937</v>
+        <v>11.43220855901009</v>
       </c>
       <c r="D14" t="n">
-        <v>9.866666666666674</v>
+        <v>10.74039578255775</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3819458071278916</v>
+        <v>5.445977332499893</v>
       </c>
       <c r="F14" t="n">
-        <v>1.58401478028587</v>
+        <v>9.367563456822083</v>
       </c>
       <c r="G14" t="n">
-        <v>3189.933993141789</v>
+        <v>3996.575848001158</v>
       </c>
       <c r="H14" t="n">
-        <v>65158.84795942099</v>
+        <v>105271.4796986796</v>
       </c>
       <c r="I14" t="n">
-        <v>205.392609612057</v>
+        <v>149.3043181952119</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2616319043385427</v>
+        <v>0.1901858745996865</v>
       </c>
       <c r="K14" t="n">
-        <v>220179.3813272613</v>
+        <v>265348.2590259308</v>
       </c>
       <c r="L14" t="n">
-        <v>199366.0887842024</v>
+        <v>241530.3985257245</v>
       </c>
       <c r="M14" t="n">
-        <v>-33952.30293372282</v>
+        <v>48980.68189977741</v>
       </c>
       <c r="N14" t="n">
-        <v>-30742.83250461032</v>
+        <v>44584.13883227654</v>
       </c>
       <c r="O14" t="n">
-        <v>217545.8597334186</v>
+        <v>260788.4034398871</v>
       </c>
       <c r="P14" t="n">
-        <v>196981.5108245034</v>
+        <v>237379.8390272004</v>
       </c>
       <c r="Q14" t="n">
-        <v>20.23435500444141</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>20.07534625578531</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>20.6163008115693</v>
+        <v>186.1105936738366</v>
       </c>
       <c r="T14" t="n">
-        <v>21.04564579556208</v>
+        <v>84</v>
       </c>
       <c r="U14" t="n">
-        <v>20.4572920629132</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>20.87014621899989</v>
+        <v>45.32793934476856</v>
       </c>
       <c r="W14" t="n">
-        <v>20.53679643724125</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>20.95789600728099</v>
+        <v>35.10569570524042</v>
       </c>
       <c r="Y14" t="n">
-        <v>-1.746229827404022e-10</v>
+        <v>18.44718178506931</v>
       </c>
       <c r="Z14" t="n">
-        <v>-5.238689482212067e-10</v>
+        <v>40.55167303774031</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>45.9366170309147</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>23.89315911756921</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>27.63586680573069</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>32.22241607765476</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>36.78624191832269</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>4.656612873077393e-10</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>3.492459654808044e-10</v>
       </c>
     </row>
     <row r="15">
@@ -1610,79 +1918,100 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>34632.38100606023</v>
+        <v>51532.25324840117</v>
       </c>
       <c r="C15" t="n">
-        <v>10.07659006958593</v>
+        <v>11.90956052868866</v>
       </c>
       <c r="D15" t="n">
-        <v>9.866666666666674</v>
+        <v>10.74039578255775</v>
       </c>
       <c r="E15" t="n">
-        <v>1.58401478028587</v>
+        <v>9.367563456822083</v>
       </c>
       <c r="F15" t="n">
-        <v>3.632006118520721</v>
+        <v>14.52139686873703</v>
       </c>
       <c r="G15" t="n">
-        <v>2589.604130495291</v>
+        <v>3858.222843426785</v>
       </c>
       <c r="H15" t="n">
-        <v>53576.08621085047</v>
+        <v>98865.16029651983</v>
       </c>
       <c r="I15" t="n">
-        <v>205.392609612057</v>
+        <v>149.3043181952119</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2616319043385427</v>
+        <v>0.1901858745996865</v>
       </c>
       <c r="K15" t="n">
-        <v>199366.0887842024</v>
+        <v>241530.3985257245</v>
       </c>
       <c r="L15" t="n">
-        <v>175855.2626911721</v>
+        <v>209297.503189525</v>
       </c>
       <c r="M15" t="n">
-        <v>-30742.83250461032</v>
+        <v>44584.13883227654</v>
       </c>
       <c r="N15" t="n">
-        <v>-27117.39453253166</v>
+        <v>38634.2630012958</v>
       </c>
       <c r="O15" t="n">
-        <v>196981.5108245034</v>
+        <v>237379.8390272004</v>
       </c>
       <c r="P15" t="n">
-        <v>173751.8930255097</v>
+        <v>205700.847260569</v>
       </c>
       <c r="Q15" t="n">
-        <v>19.46163101527621</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>19.28613143871402</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>21.04564579556208</v>
+        <v>196.8509894563944</v>
       </c>
       <c r="T15" t="n">
-        <v>21.86770047231724</v>
+        <v>84</v>
       </c>
       <c r="U15" t="n">
-        <v>20.87014621899989</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>21.66898946739749</v>
+        <v>47.64817220341477</v>
       </c>
       <c r="W15" t="n">
-        <v>20.95789600728099</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>21.76834496985737</v>
+        <v>36.56905357409261</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.164153218269348e-10</v>
+        <v>18.2683033489086</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>45.9366170309147</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>53.34354890799668</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>27.63586680573069</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>32.22559190499785</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>36.78624191832269</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>42.78457040649727</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>2.328306436538696e-10</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-1.164153218269348e-10</v>
       </c>
     </row>
     <row r="16">
@@ -1690,79 +2019,100 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>32969.95206697495</v>
+        <v>45452.10058100246</v>
       </c>
       <c r="C16" t="n">
-        <v>10.46045467471885</v>
+        <v>12.58846731497938</v>
       </c>
       <c r="D16" t="n">
-        <v>10.02372911589109</v>
+        <v>10.74039578255773</v>
       </c>
       <c r="E16" t="n">
-        <v>3.632006118520721</v>
+        <v>14.52139686873703</v>
       </c>
       <c r="F16" t="n">
-        <v>6.62608620842262</v>
+        <v>21.09993317275917</v>
       </c>
       <c r="G16" t="n">
-        <v>2183.374874140138</v>
+        <v>3637.64756695773</v>
       </c>
       <c r="H16" t="n">
-        <v>46296.37332020365</v>
+        <v>90590.74528566952</v>
       </c>
       <c r="I16" t="n">
-        <v>205.392609612057</v>
+        <v>149.3043181952119</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2616319043385427</v>
+        <v>0.1901858745996865</v>
       </c>
       <c r="K16" t="n">
-        <v>175855.2626911721</v>
+        <v>209297.503189525</v>
       </c>
       <c r="L16" t="n">
-        <v>149254.8419694295</v>
+        <v>170008.5641260002</v>
       </c>
       <c r="M16" t="n">
-        <v>-27117.39453253166</v>
+        <v>38634.2630012958</v>
       </c>
       <c r="N16" t="n">
-        <v>-23015.53205537854</v>
+        <v>31381.91081509891</v>
       </c>
       <c r="O16" t="n">
-        <v>173751.8930255097</v>
+        <v>205700.847260569</v>
       </c>
       <c r="P16" t="n">
-        <v>147469.6346219357</v>
+        <v>167087.0657764314</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.23569435379652</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>18.03698334887677</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>21.86770047231724</v>
+        <v>207.5913852389521</v>
       </c>
       <c r="T16" t="n">
-        <v>23.14680768148509</v>
+        <v>84</v>
       </c>
       <c r="U16" t="n">
-        <v>21.66898946739749</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>22.91323445081723</v>
+        <v>50.65773215657706</v>
       </c>
       <c r="W16" t="n">
-        <v>21.76834496985737</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>23.03002106615116</v>
+        <v>38.82215203925965</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.074536263942719e-10</v>
+        <v>17.70419503626082</v>
       </c>
       <c r="Z16" t="n">
-        <v>-7.566995918750763e-10</v>
+        <v>53.34354890799668</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>63.80407871657799</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>32.22559190499785</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>37.80864545969715</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>42.78457040649727</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>50.80636208813757</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>2.328306436538696e-10</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>4.656612873077393e-10</v>
       </c>
     </row>
     <row r="17">
@@ -1770,79 +2120,100 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>33034.25064850194</v>
+        <v>39625.35729313354</v>
       </c>
       <c r="C17" t="n">
-        <v>10.78695667671353</v>
+        <v>13.56873289901276</v>
       </c>
       <c r="D17" t="n">
-        <v>10.02372911589109</v>
+        <v>10.74039578255775</v>
       </c>
       <c r="E17" t="n">
-        <v>6.62608620842262</v>
+        <v>21.09993317275917</v>
       </c>
       <c r="F17" t="n">
-        <v>10.6161421138269</v>
+        <v>29.41303341423252</v>
       </c>
       <c r="G17" t="n">
-        <v>1966.189034868297</v>
+        <v>3233.835658968628</v>
       </c>
       <c r="H17" t="n">
-        <v>41691.15558417433</v>
+        <v>80104.32293020055</v>
       </c>
       <c r="I17" t="n">
-        <v>205.392609612057</v>
+        <v>149.3043181952119</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2616319043385427</v>
+        <v>0.1901858745996865</v>
       </c>
       <c r="K17" t="n">
-        <v>149254.8419694295</v>
+        <v>170008.5641260002</v>
       </c>
       <c r="L17" t="n">
-        <v>118759.0315246236</v>
+        <v>125788.1591205314</v>
       </c>
       <c r="M17" t="n">
-        <v>-23015.53205537854</v>
+        <v>31381.91081509891</v>
       </c>
       <c r="N17" t="n">
-        <v>-18312.98911884226</v>
+        <v>23219.25846153466</v>
       </c>
       <c r="O17" t="n">
-        <v>147469.6346219357</v>
+        <v>167087.0657764314</v>
       </c>
       <c r="P17" t="n">
-        <v>117338.5784735766</v>
+        <v>123626.5627259312</v>
       </c>
       <c r="Q17" t="n">
-        <v>16.52072147306247</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>16.28714824239461</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>23.14680768148509</v>
+        <v>218.3317810215099</v>
       </c>
       <c r="T17" t="n">
-        <v>25.11096270295233</v>
+        <v>84</v>
       </c>
       <c r="U17" t="n">
-        <v>22.91323445081723</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>24.81861041293138</v>
+        <v>54.49896162865568</v>
       </c>
       <c r="W17" t="n">
-        <v>23.03002106615116</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>24.96478655794185</v>
+        <v>42.70414554381883</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.746229827404022e-10</v>
+        <v>16.70871228693798</v>
       </c>
       <c r="Z17" t="n">
-        <v>-2.328306436538696e-10</v>
+        <v>63.80407871657799</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>79.72343032810673</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>37.80864545969715</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>44.59686798847507</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>50.80636208813757</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>62.1601491582909</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.164153218269348e-10</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>-1.164153218269348e-10</v>
       </c>
     </row>
     <row r="18">
@@ -1850,79 +2221,100 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>32331.76218834914</v>
+        <v>32702.29842593047</v>
       </c>
       <c r="C18" t="n">
-        <v>11.2434982054693</v>
+        <v>15.05199908739129</v>
       </c>
       <c r="D18" t="n">
-        <v>10.02372911589109</v>
+        <v>10.74039578255775</v>
       </c>
       <c r="E18" t="n">
-        <v>10.6161421138269</v>
+        <v>29.41303341423252</v>
       </c>
       <c r="F18" t="n">
-        <v>15.71643411866144</v>
+        <v>39.99961494556892</v>
       </c>
       <c r="G18" t="n">
-        <v>1683.652215421597</v>
+        <v>2704.097070652814</v>
       </c>
       <c r="H18" t="n">
-        <v>35700.2328962146</v>
+        <v>66834.00412060897</v>
       </c>
       <c r="I18" t="n">
-        <v>205.392609612057</v>
+        <v>149.3043181952119</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2616319043385427</v>
+        <v>0.1901858745996865</v>
       </c>
       <c r="K18" t="n">
-        <v>118759.0315246236</v>
+        <v>125788.1591205314</v>
       </c>
       <c r="L18" t="n">
-        <v>85540.22534955757</v>
+        <v>79608.92907449891</v>
       </c>
       <c r="M18" t="n">
-        <v>-18312.98911884226</v>
+        <v>23219.25846153466</v>
       </c>
       <c r="N18" t="n">
-        <v>-13190.55229685807</v>
+        <v>14695.02624850053</v>
       </c>
       <c r="O18" t="n">
-        <v>117338.5784735766</v>
+        <v>123626.5627259312</v>
       </c>
       <c r="P18" t="n">
-        <v>84517.09580290217</v>
+        <v>78240.89590453626</v>
       </c>
       <c r="Q18" t="n">
-        <v>14.49482058912543</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>14.20246829910448</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>25.11096270295233</v>
+        <v>229.0721768040676</v>
       </c>
       <c r="T18" t="n">
-        <v>27.88004435525227</v>
+        <v>84</v>
       </c>
       <c r="U18" t="n">
-        <v>24.81861041293138</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>27.47689768035635</v>
+        <v>59.42423583911215</v>
       </c>
       <c r="W18" t="n">
-        <v>24.96478655794185</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>27.67847101780431</v>
+        <v>50.31039691387421</v>
       </c>
       <c r="Y18" t="n">
-        <v>-5.820766091346741e-11</v>
+        <v>15.18383457424255</v>
       </c>
       <c r="Z18" t="n">
-        <v>-5.820766091346741e-11</v>
+        <v>79.72343032810673</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>108.427156678785</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>44.59686798847507</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>52.94837594927505</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>62.1601491582909</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>80.68776631403</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>-3.492459654808044e-10</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-2.328306436538696e-10</v>
       </c>
     </row>
     <row r="19">
@@ -1930,78 +2322,99 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>30387.63906863293</v>
+        <v>20381.24591538714</v>
       </c>
       <c r="C19" t="n">
-        <v>11.87808673065086</v>
+        <v>13.32603622855419</v>
       </c>
       <c r="D19" t="n">
-        <v>10.02372911589109</v>
+        <v>8.337612477961102</v>
       </c>
       <c r="E19" t="n">
-        <v>15.71643411866144</v>
+        <v>39.99961494556892</v>
       </c>
       <c r="F19" t="n">
-        <v>22.10032906584965</v>
+        <v>50.43654617266478</v>
       </c>
       <c r="G19" t="n">
-        <v>1327.004522339517</v>
+        <v>2094.243263392033</v>
       </c>
       <c r="H19" t="n">
-        <v>28137.86010431374</v>
+        <v>40767.19288460369</v>
       </c>
       <c r="I19" t="n">
-        <v>205.392609612057</v>
+        <v>37.32607954880299</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2616319043385427</v>
+        <v>0.2332392313697652</v>
       </c>
       <c r="K19" t="n">
-        <v>85540.22534955757</v>
+        <v>79608.92907449891</v>
       </c>
       <c r="L19" t="n">
-        <v>51605.74309560472</v>
+        <v>44623.06593036568</v>
       </c>
       <c r="M19" t="n">
-        <v>-13190.55229685807</v>
+        <v>14695.02624850053</v>
       </c>
       <c r="N19" t="n">
-        <v>-7957.756135655503</v>
+        <v>8236.979604657758</v>
       </c>
       <c r="O19" t="n">
-        <v>84517.09580290217</v>
+        <v>78240.89590453626</v>
       </c>
       <c r="P19" t="n">
-        <v>50988.49711194665</v>
+        <v>43856.24448146711</v>
       </c>
       <c r="Q19" t="n">
-        <v>12.16361023659083</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.76046356169491</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>27.88004435525227</v>
+        <v>238.6111809343271</v>
       </c>
       <c r="T19" t="n">
-        <v>31.69718819015153</v>
+        <v>84</v>
       </c>
       <c r="U19" t="n">
-        <v>27.47689768035635</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>31.03617645021513</v>
+        <v>64.85041009437636</v>
       </c>
       <c r="W19" t="n">
-        <v>27.67847101780431</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>31.36668232018333</v>
+        <v>68.42754173321603</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>12.94876100370612</v>
       </c>
       <c r="Z19" t="n">
+        <v>108.427156678785</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>160.148632729653</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>52.94837594927505</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>61.20521702938067</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>80.68776631403</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>110.6769248795168</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>-2.91038304567337e-10</v>
+      </c>
+      <c r="AG19" t="n">
         <v>-5.820766091346741e-11</v>
       </c>
     </row>
@@ -2010,79 +2423,100 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>26157.76394548854</v>
+        <v>15553.42110104573</v>
       </c>
       <c r="C20" t="n">
-        <v>12.77628929067647</v>
+        <v>15.80678162444908</v>
       </c>
       <c r="D20" t="n">
-        <v>10.02372911589109</v>
+        <v>8.337612477961102</v>
       </c>
       <c r="E20" t="n">
-        <v>22.10032906584965</v>
+        <v>50.43654617266478</v>
       </c>
       <c r="F20" t="n">
-        <v>30.04068289318309</v>
+        <v>63.97272945919053</v>
       </c>
       <c r="G20" t="n">
-        <v>882.7639613190715</v>
+        <v>1392.921324893437</v>
       </c>
       <c r="H20" t="n">
-        <v>18718.16443016666</v>
+        <v>28978.01237993801</v>
       </c>
       <c r="I20" t="n">
-        <v>205.392609612057</v>
+        <v>37.32607954880299</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2616319043385427</v>
+        <v>0.2332392313697652</v>
       </c>
       <c r="K20" t="n">
-        <v>51605.74309560472</v>
+        <v>44623.06593036568</v>
       </c>
       <c r="L20" t="n">
-        <v>20594.17504268275</v>
+        <v>14409.21840244445</v>
       </c>
       <c r="M20" t="n">
-        <v>-7957.756135655503</v>
+        <v>8236.979604657758</v>
       </c>
       <c r="N20" t="n">
-        <v>-3175.681871319282</v>
+        <v>2659.800164453235</v>
       </c>
       <c r="O20" t="n">
-        <v>50988.49711194665</v>
+        <v>43856.24448146711</v>
       </c>
       <c r="P20" t="n">
-        <v>20347.85222918702</v>
+        <v>14161.6043601888</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.596859124301876</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>8.935847384365481</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.69718819015153</v>
+        <v>246.9487934122882</v>
       </c>
       <c r="T20" t="n">
-        <v>37.41400919527352</v>
+        <v>84</v>
       </c>
       <c r="U20" t="n">
-        <v>31.03617645021513</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>35.78522417033138</v>
+        <v>70.56169899808332</v>
       </c>
       <c r="W20" t="n">
-        <v>31.36668232018333</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>36.59961668280245</v>
+        <v>109.7120865569883</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>10.76867085671589</v>
       </c>
       <c r="Z20" t="n">
-        <v>-2.91038304567337e-11</v>
+        <v>160.148632729653</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>379.1012507034552</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>61.20521702938067</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>72.91387764526789</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>110.6769248795168</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>226.0075641743616</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1.164153218269348e-10</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>-5.820766091346741e-11</v>
       </c>
     </row>
     <row r="21">
@@ -2090,79 +2524,100 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>16889.66098789262</v>
+        <v>8301.458794425707</v>
       </c>
       <c r="C21" t="n">
-        <v>14.10583813983623</v>
+        <v>21.16143236185801</v>
       </c>
       <c r="D21" t="n">
-        <v>10.02372911589109</v>
+        <v>8.339940676379882</v>
       </c>
       <c r="E21" t="n">
-        <v>30.04068289318309</v>
+        <v>63.97272945919053</v>
       </c>
       <c r="F21" t="n">
-        <v>39.99961494556895</v>
+        <v>83.95181749179723</v>
       </c>
       <c r="G21" t="n">
-        <v>329.0368204760213</v>
+        <v>401.2583288838415</v>
       </c>
       <c r="H21" t="n">
-        <v>6976.910679550569</v>
+        <v>12244.0592582142</v>
       </c>
       <c r="I21" t="n">
-        <v>205.392609612057</v>
+        <v>74.65215909760597</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2616319043385427</v>
+        <v>0.1984662854304518</v>
       </c>
       <c r="K21" t="n">
-        <v>20594.17504268275</v>
+        <v>14409.21840244445</v>
       </c>
       <c r="L21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>-3175.681871319282</v>
+        <v>2659.800164453235</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>20347.85222918702</v>
+        <v>14161.6043601888</v>
       </c>
       <c r="P21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.373326302090435</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>5.744541277148287</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>37.41400919527352</v>
+        <v>255.2875699894586</v>
       </c>
       <c r="T21" t="n">
-        <v>39.99961494556895</v>
+        <v>84</v>
       </c>
       <c r="U21" t="n">
-        <v>35.78522417033138</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>39.99961494556895</v>
+        <v>78.3533728313092</v>
       </c>
       <c r="W21" t="n">
-        <v>36.59961668280245</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>39.99961494556895</v>
+        <v>315.1285212442647</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>8.941148186077362</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>379.1012507034552</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>83.95181749179723</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>72.91387764526789</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>83.95181749179723</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>226.0075641743616</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>83.95181749179723</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>-2.91038304567337e-11</v>
       </c>
     </row>
   </sheetData>
